--- a/Fujiya Instruments/Junk Guitar/Junk Guitar/xlsx/VHG.xlsx
+++ b/Fujiya Instruments/Junk Guitar/Junk Guitar/xlsx/VHG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="2385" yWindow="3945" windowWidth="24825" windowHeight="15615" tabRatio="500" firstSheet="6" activeTab="11"/>
+    <workbookView xWindow="2385" yWindow="3945" windowWidth="24825" windowHeight="15615" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="VHG Poly (Main)" sheetId="1" r:id="rId1"/>
@@ -35,6 +35,21 @@
       <text>
         <r>
           <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Since 0.7
+Enter valid filename. The converter will use as output filename and VST Expression Map name</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0">
+      <text>
+        <r>
+          <rPr>
             <b/>
             <sz val="9"/>
             <color rgb="FF000000"/>
@@ -57,6 +72,21 @@
   </authors>
   <commentList>
     <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Since 0.7
+Enter valid filename. The converter will use as output filename and VST Expression Map name</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -85,6 +115,21 @@
       <text>
         <r>
           <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Since 0.7
+Enter valid filename. The converter will use as output filename and VST Expression Map name</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0">
+      <text>
+        <r>
+          <rPr>
             <b/>
             <sz val="9"/>
             <color rgb="FF000000"/>
@@ -107,6 +152,21 @@
   </authors>
   <commentList>
     <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Since 0.7
+Enter valid filename. The converter will use as output filename and VST Expression Map name</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -135,6 +195,21 @@
       <text>
         <r>
           <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Since 0.7
+Enter valid filename. The converter will use as output filename and VST Expression Map name</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0">
+      <text>
+        <r>
+          <rPr>
             <b/>
             <sz val="9"/>
             <color rgb="FF000000"/>
@@ -157,6 +232,21 @@
   </authors>
   <commentList>
     <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Since 0.7
+Enter valid filename. The converter will use as output filename and VST Expression Map name</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -185,6 +275,21 @@
       <text>
         <r>
           <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Since 0.7
+Enter valid filename. The converter will use as output filename and VST Expression Map name</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0">
+      <text>
+        <r>
+          <rPr>
             <b/>
             <sz val="9"/>
             <color rgb="FF000000"/>
@@ -207,6 +312,21 @@
   </authors>
   <commentList>
     <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Since 0.7
+Enter valid filename. The converter will use as output filename and VST Expression Map name</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -235,6 +355,21 @@
       <text>
         <r>
           <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Since 0.7
+Enter valid filename. The converter will use as output filename and VST Expression Map name</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0">
+      <text>
+        <r>
+          <rPr>
             <b/>
             <sz val="9"/>
             <color rgb="FF000000"/>
@@ -257,6 +392,21 @@
   </authors>
   <commentList>
     <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Since 0.7
+Enter valid filename. The converter will use as output filename and VST Expression Map name</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -285,6 +435,21 @@
       <text>
         <r>
           <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Since 0.7
+Enter valid filename. The converter will use as output filename and VST Expression Map name</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0">
+      <text>
+        <r>
+          <rPr>
             <b/>
             <sz val="9"/>
             <color rgb="FF000000"/>
@@ -310,6 +475,21 @@
       <text>
         <r>
           <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Since 0.7
+Enter valid filename. The converter will use as output filename and VST Expression Map name</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0">
+      <text>
+        <r>
+          <rPr>
             <b/>
             <sz val="9"/>
             <color rgb="FF000000"/>
@@ -326,7 +506,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="250">
   <si>
     <t>Name</t>
   </si>
@@ -1038,12 +1218,51 @@
   <si>
     <t>Noise (Rnd) Vel 127</t>
   </si>
+  <si>
+    <t>Expression Map Name</t>
+  </si>
+  <si>
+    <t>VHG Poly (Main)</t>
+  </si>
+  <si>
+    <t>VHG Poly (Other)</t>
+  </si>
+  <si>
+    <t>VHG Mono (Main)</t>
+  </si>
+  <si>
+    <t>VHG Mono (Other)</t>
+  </si>
+  <si>
+    <t>VHG Mono (Stop)</t>
+  </si>
+  <si>
+    <t>VHG Real Chord (Stop)</t>
+  </si>
+  <si>
+    <t>VHG Simulate Chord</t>
+  </si>
+  <si>
+    <t>VHG Arpeggio</t>
+  </si>
+  <si>
+    <t>VHG Riff (Main)</t>
+  </si>
+  <si>
+    <t>VHG Riff (Chord)</t>
+  </si>
+  <si>
+    <t>VHG Riff (Other)</t>
+  </si>
+  <si>
+    <t>VHG Riff (Stop)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1103,8 +1322,15 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1157,6 +1383,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFDBEEF4"/>
         <bgColor rgb="FFEBF1DE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39994506668294322"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1219,7 +1451,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1291,6 +1523,12 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1382,13 +1620,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1687,7 +1925,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1695,10 +1933,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K129"/>
+  <dimension ref="A1:K131"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -1715,100 +1953,59 @@
     <col min="1026" max="16384" width="8.875" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:11" ht="30" customHeight="1">
+      <c r="A1" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>238</v>
+      </c>
+      <c r="C1" s="24"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I3" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J3" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K3" s="17" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="19">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="19">
-        <v>1</v>
-      </c>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B3" s="19">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="19">
-        <v>1</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="19">
-        <v>120</v>
-      </c>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>144</v>
+        <v>11</v>
       </c>
       <c r="B4" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>144</v>
+        <v>11</v>
       </c>
       <c r="D4" s="20" t="s">
         <v>12</v>
@@ -1816,12 +2013,8 @@
       <c r="E4" s="19">
         <v>1</v>
       </c>
-      <c r="F4" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="19">
-        <v>120</v>
-      </c>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
       <c r="H4" s="19"/>
       <c r="I4" s="19"/>
       <c r="J4" s="19"/>
@@ -1829,13 +2022,13 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B5" s="19">
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D5" s="20" t="s">
         <v>12</v>
@@ -1844,7 +2037,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G5" s="19">
         <v>120</v>
@@ -1856,13 +2049,13 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B6" s="19">
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D6" s="20" t="s">
         <v>12</v>
@@ -1871,7 +2064,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G6" s="19">
         <v>120</v>
@@ -1883,13 +2076,13 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B7" s="19">
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D7" s="20" t="s">
         <v>12</v>
@@ -1898,7 +2091,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G7" s="19">
         <v>120</v>
@@ -1910,13 +2103,13 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B8" s="19">
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D8" s="20" t="s">
         <v>12</v>
@@ -1925,7 +2118,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G8" s="19">
         <v>120</v>
@@ -1937,13 +2130,13 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B9" s="19">
         <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D9" s="20" t="s">
         <v>12</v>
@@ -1952,7 +2145,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G9" s="19">
         <v>120</v>
@@ -1964,13 +2157,13 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B10" s="19">
         <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D10" s="20" t="s">
         <v>12</v>
@@ -1979,7 +2172,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G10" s="19">
         <v>120</v>
@@ -1991,13 +2184,13 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B11" s="19">
         <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D11" s="20" t="s">
         <v>12</v>
@@ -2006,7 +2199,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G11" s="19">
         <v>120</v>
@@ -2018,13 +2211,13 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B12" s="19">
         <v>1</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D12" s="20" t="s">
         <v>12</v>
@@ -2033,7 +2226,7 @@
         <v>1</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G12" s="19">
         <v>120</v>
@@ -2045,13 +2238,13 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B13" s="19">
         <v>1</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D13" s="20" t="s">
         <v>12</v>
@@ -2060,7 +2253,7 @@
         <v>1</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G13" s="19">
         <v>120</v>
@@ -2072,13 +2265,13 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B14" s="19">
         <v>1</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D14" s="20" t="s">
         <v>12</v>
@@ -2087,7 +2280,7 @@
         <v>1</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G14" s="19">
         <v>120</v>
@@ -2099,13 +2292,13 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B15" s="19">
         <v>1</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D15" s="20" t="s">
         <v>12</v>
@@ -2114,7 +2307,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G15" s="19">
         <v>120</v>
@@ -2126,13 +2319,13 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B16" s="19">
         <v>1</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D16" s="20" t="s">
         <v>12</v>
@@ -2141,7 +2334,7 @@
         <v>1</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G16" s="19">
         <v>120</v>
@@ -2153,13 +2346,13 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B17" s="19">
         <v>1</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D17" s="20" t="s">
         <v>12</v>
@@ -2168,7 +2361,7 @@
         <v>1</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G17" s="19">
         <v>120</v>
@@ -2180,13 +2373,13 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B18" s="19">
         <v>1</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D18" s="20" t="s">
         <v>12</v>
@@ -2195,7 +2388,7 @@
         <v>1</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G18" s="19">
         <v>120</v>
@@ -2206,26 +2399,54 @@
       <c r="K18" s="19"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="1"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
+      <c r="A19" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B19" s="19">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="19">
+        <v>1</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19" s="19">
+        <v>120</v>
+      </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
       <c r="J19" s="19"/>
       <c r="K19" s="19"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="1"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
+      <c r="A20" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B20" s="19">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="19">
+        <v>1</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="G20" s="19">
+        <v>120</v>
+      </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
       <c r="J20" s="19"/>
@@ -3648,26 +3869,55 @@
       <c r="J129" s="19"/>
       <c r="K129" s="19"/>
     </row>
+    <row r="130" spans="1:11">
+      <c r="A130" s="1"/>
+      <c r="B130" s="19"/>
+      <c r="C130" s="2"/>
+      <c r="D130" s="20"/>
+      <c r="E130" s="19"/>
+      <c r="F130" s="19"/>
+      <c r="G130" s="19"/>
+      <c r="H130" s="19"/>
+      <c r="I130" s="19"/>
+      <c r="J130" s="19"/>
+      <c r="K130" s="19"/>
+    </row>
+    <row r="131" spans="1:11">
+      <c r="A131" s="1"/>
+      <c r="B131" s="19"/>
+      <c r="C131" s="2"/>
+      <c r="D131" s="20"/>
+      <c r="E131" s="19"/>
+      <c r="F131" s="19"/>
+      <c r="G131" s="19"/>
+      <c r="H131" s="19"/>
+      <c r="I131" s="19"/>
+      <c r="J131" s="19"/>
+      <c r="K131" s="19"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
   <phoneticPr fontId="7"/>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B129">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B131">
       <formula1>"0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H2:I129">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H4:I131">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty." sqref="G2:G129">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty." sqref="G4:G131">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use Program Change, set cell value empty." sqref="J2:J129">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use Program Change, set cell value empty." sqref="J4:J131">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If cell value is empty, MSB will be set 0._x000a__x000a_By my research, Maybe Cubase will not recognize MSB." sqref="K2:K129">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If cell value is empty, MSB will be set 0._x000a__x000a_By my research, Maybe Cubase will not recognize MSB." sqref="K4:K131">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
@@ -3686,7 +3936,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>D2:D129</xm:sqref>
+          <xm:sqref>D4:D131</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -3695,7 +3945,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>E2:E129</xm:sqref>
+          <xm:sqref>E4:E131</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" promptTitle="MIDI Note" prompt="Choose from Drop-down list or imput number directly(0-127)_x000a__x000a_If don’t use MIDI Note, set Cell value empty.">
           <x14:formula1>
@@ -3704,7 +3954,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>F2:F129</xm:sqref>
+          <xm:sqref>F4:F131</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3714,10 +3964,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K129"/>
+  <dimension ref="A1:K131"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -3734,100 +3984,59 @@
     <col min="1026" max="16384" width="8.875" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:11" ht="30" customHeight="1">
+      <c r="A1" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="C1" s="24"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I3" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J3" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K3" s="17" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="19">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="19">
-        <v>1</v>
-      </c>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="B3" s="19">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="19">
-        <v>1</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="19">
-        <v>120</v>
-      </c>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>217</v>
+        <v>11</v>
       </c>
       <c r="B4" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>217</v>
+        <v>11</v>
       </c>
       <c r="D4" s="20" t="s">
         <v>12</v>
@@ -3835,12 +4044,8 @@
       <c r="E4" s="19">
         <v>1</v>
       </c>
-      <c r="F4" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="19">
-        <v>120</v>
-      </c>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
       <c r="H4" s="19"/>
       <c r="I4" s="19"/>
       <c r="J4" s="19"/>
@@ -3848,13 +4053,13 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B5" s="19">
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D5" s="20" t="s">
         <v>12</v>
@@ -3863,7 +4068,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G5" s="19">
         <v>120</v>
@@ -3875,13 +4080,13 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B6" s="19">
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D6" s="20" t="s">
         <v>12</v>
@@ -3890,7 +4095,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G6" s="19">
         <v>120</v>
@@ -3902,13 +4107,13 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B7" s="19">
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D7" s="20" t="s">
         <v>12</v>
@@ -3917,7 +4122,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G7" s="19">
         <v>120</v>
@@ -3929,13 +4134,13 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B8" s="19">
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D8" s="20" t="s">
         <v>12</v>
@@ -3944,7 +4149,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G8" s="19">
         <v>120</v>
@@ -3956,13 +4161,13 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B9" s="19">
         <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D9" s="20" t="s">
         <v>12</v>
@@ -3971,7 +4176,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G9" s="19">
         <v>120</v>
@@ -3983,13 +4188,13 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B10" s="19">
         <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D10" s="20" t="s">
         <v>12</v>
@@ -3998,7 +4203,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G10" s="19">
         <v>120</v>
@@ -4010,13 +4215,13 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B11" s="19">
         <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D11" s="20" t="s">
         <v>12</v>
@@ -4025,7 +4230,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G11" s="19">
         <v>120</v>
@@ -4037,13 +4242,13 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B12" s="19">
         <v>1</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D12" s="20" t="s">
         <v>12</v>
@@ -4052,7 +4257,7 @@
         <v>1</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G12" s="19">
         <v>120</v>
@@ -4064,13 +4269,13 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B13" s="19">
         <v>1</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D13" s="20" t="s">
         <v>12</v>
@@ -4079,7 +4284,7 @@
         <v>1</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G13" s="19">
         <v>120</v>
@@ -4091,13 +4296,13 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B14" s="19">
         <v>1</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D14" s="20" t="s">
         <v>12</v>
@@ -4106,7 +4311,7 @@
         <v>1</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G14" s="19">
         <v>120</v>
@@ -4118,13 +4323,13 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B15" s="19">
         <v>1</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D15" s="20" t="s">
         <v>12</v>
@@ -4133,7 +4338,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G15" s="19">
         <v>120</v>
@@ -4144,26 +4349,54 @@
       <c r="K15" s="19"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="1"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
+      <c r="A16" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B16" s="19">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="19">
+        <v>1</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="19">
+        <v>120</v>
+      </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
       <c r="J16" s="19"/>
       <c r="K16" s="19"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="1"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
+      <c r="A17" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B17" s="19">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="19">
+        <v>1</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="19">
+        <v>120</v>
+      </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
       <c r="J17" s="19"/>
@@ -5625,26 +5858,55 @@
       <c r="J129" s="19"/>
       <c r="K129" s="19"/>
     </row>
+    <row r="130" spans="1:11">
+      <c r="A130" s="1"/>
+      <c r="B130" s="19"/>
+      <c r="C130" s="2"/>
+      <c r="D130" s="20"/>
+      <c r="E130" s="19"/>
+      <c r="F130" s="19"/>
+      <c r="G130" s="19"/>
+      <c r="H130" s="19"/>
+      <c r="I130" s="19"/>
+      <c r="J130" s="19"/>
+      <c r="K130" s="19"/>
+    </row>
+    <row r="131" spans="1:11">
+      <c r="A131" s="1"/>
+      <c r="B131" s="19"/>
+      <c r="C131" s="2"/>
+      <c r="D131" s="20"/>
+      <c r="E131" s="19"/>
+      <c r="F131" s="19"/>
+      <c r="G131" s="19"/>
+      <c r="H131" s="19"/>
+      <c r="I131" s="19"/>
+      <c r="J131" s="19"/>
+      <c r="K131" s="19"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
   <phoneticPr fontId="8"/>
   <dataValidations count="5">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If cell value is empty, MSB will be set 0._x000a__x000a_By my research, Maybe Cubase will not recognize MSB." sqref="K2:K129">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If cell value is empty, MSB will be set 0._x000a__x000a_By my research, Maybe Cubase will not recognize MSB." sqref="K4:K131">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use Program Change, set cell value empty." sqref="J2:J129">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use Program Change, set cell value empty." sqref="J4:J131">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty." sqref="G2:G129">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty." sqref="G4:G131">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H2:I129">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H4:I131">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B129">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B131">
       <formula1>"0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -5662,7 +5924,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>F2:F129</xm:sqref>
+          <xm:sqref>F4:F131</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -5671,7 +5933,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>E2:E129</xm:sqref>
+          <xm:sqref>E4:E131</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -5680,7 +5942,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>D2:D129</xm:sqref>
+          <xm:sqref>D4:D131</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5690,12 +5952,12 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K129"/>
+  <dimension ref="A1:K131"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
@@ -5710,100 +5972,59 @@
     <col min="1026" max="16384" width="8.875" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:11" ht="30" customHeight="1">
+      <c r="A1" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="C1" s="24"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I3" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J3" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K3" s="17" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="19">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="19">
-        <v>1</v>
-      </c>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B3" s="19">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="19">
-        <v>1</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" s="19">
-        <v>120</v>
-      </c>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>160</v>
+        <v>11</v>
       </c>
       <c r="B4" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>160</v>
+        <v>11</v>
       </c>
       <c r="D4" s="20" t="s">
         <v>12</v>
@@ -5811,12 +6032,8 @@
       <c r="E4" s="19">
         <v>1</v>
       </c>
-      <c r="F4" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="19">
-        <v>120</v>
-      </c>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
       <c r="H4" s="19"/>
       <c r="I4" s="19"/>
       <c r="J4" s="19"/>
@@ -5824,13 +6041,13 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B5" s="19">
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D5" s="20" t="s">
         <v>12</v>
@@ -5839,7 +6056,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G5" s="19">
         <v>120</v>
@@ -5850,26 +6067,54 @@
       <c r="K5" s="19"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="1"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
+      <c r="A6" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B6" s="19">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="19">
+        <v>1</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="19">
+        <v>120</v>
+      </c>
       <c r="H6" s="19"/>
       <c r="I6" s="19"/>
       <c r="J6" s="19"/>
       <c r="K6" s="19"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="1"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
+      <c r="A7" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B7" s="19">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="19">
+        <v>1</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="19">
+        <v>120</v>
+      </c>
       <c r="H7" s="19"/>
       <c r="I7" s="19"/>
       <c r="J7" s="19"/>
@@ -7461,26 +7706,55 @@
       <c r="J129" s="19"/>
       <c r="K129" s="19"/>
     </row>
+    <row r="130" spans="1:11">
+      <c r="A130" s="1"/>
+      <c r="B130" s="19"/>
+      <c r="C130" s="2"/>
+      <c r="D130" s="20"/>
+      <c r="E130" s="19"/>
+      <c r="F130" s="19"/>
+      <c r="G130" s="19"/>
+      <c r="H130" s="19"/>
+      <c r="I130" s="19"/>
+      <c r="J130" s="19"/>
+      <c r="K130" s="19"/>
+    </row>
+    <row r="131" spans="1:11">
+      <c r="A131" s="1"/>
+      <c r="B131" s="19"/>
+      <c r="C131" s="2"/>
+      <c r="D131" s="20"/>
+      <c r="E131" s="19"/>
+      <c r="F131" s="19"/>
+      <c r="G131" s="19"/>
+      <c r="H131" s="19"/>
+      <c r="I131" s="19"/>
+      <c r="J131" s="19"/>
+      <c r="K131" s="19"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
   <phoneticPr fontId="8"/>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B129">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B131">
       <formula1>"0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H2:I129">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H4:I131">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty." sqref="G2:G129">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty." sqref="G4:G131">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use Program Change, set cell value empty." sqref="J2:J129">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use Program Change, set cell value empty." sqref="J4:J131">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If cell value is empty, MSB will be set 0._x000a__x000a_By my research, Maybe Cubase will not recognize MSB." sqref="K2:K129">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If cell value is empty, MSB will be set 0._x000a__x000a_By my research, Maybe Cubase will not recognize MSB." sqref="K4:K131">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
@@ -7498,7 +7772,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>D2:D129</xm:sqref>
+          <xm:sqref>D4:D131</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -7507,7 +7781,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>E2:E129</xm:sqref>
+          <xm:sqref>E4:E131</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" promptTitle="MIDI Note" prompt="Choose from Drop-down list or imput number directly(0-127)_x000a__x000a_If don’t use MIDI Note, set Cell value empty.">
           <x14:formula1>
@@ -7516,7 +7790,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>F2:F129</xm:sqref>
+          <xm:sqref>F4:F131</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -7526,12 +7800,12 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K129"/>
+  <dimension ref="A1:K131"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
@@ -7546,100 +7820,59 @@
     <col min="1026" max="16384" width="8.875" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:11" ht="30" customHeight="1">
+      <c r="A1" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="C1" s="24"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I3" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J3" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K3" s="17" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="19">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="19">
-        <v>1</v>
-      </c>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B3" s="19">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="19">
-        <v>1</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="G3" s="19">
-        <v>15</v>
-      </c>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>172</v>
+        <v>11</v>
       </c>
       <c r="B4" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>172</v>
+        <v>11</v>
       </c>
       <c r="D4" s="20" t="s">
         <v>12</v>
@@ -7647,12 +7880,8 @@
       <c r="E4" s="19">
         <v>1</v>
       </c>
-      <c r="F4" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="G4" s="19">
-        <v>31</v>
-      </c>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
       <c r="H4" s="19"/>
       <c r="I4" s="19"/>
       <c r="J4" s="19"/>
@@ -7660,13 +7889,13 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B5" s="19">
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D5" s="20" t="s">
         <v>12</v>
@@ -7678,7 +7907,7 @@
         <v>46</v>
       </c>
       <c r="G5" s="19">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="H5" s="19"/>
       <c r="I5" s="19"/>
@@ -7687,13 +7916,13 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B6" s="19">
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D6" s="20" t="s">
         <v>12</v>
@@ -7705,7 +7934,7 @@
         <v>46</v>
       </c>
       <c r="G6" s="19">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="H6" s="19"/>
       <c r="I6" s="19"/>
@@ -7714,13 +7943,13 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B7" s="19">
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D7" s="20" t="s">
         <v>12</v>
@@ -7732,7 +7961,7 @@
         <v>46</v>
       </c>
       <c r="G7" s="19">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="H7" s="19"/>
       <c r="I7" s="19"/>
@@ -7741,13 +7970,13 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B8" s="19">
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D8" s="20" t="s">
         <v>12</v>
@@ -7759,7 +7988,7 @@
         <v>46</v>
       </c>
       <c r="G8" s="19">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="H8" s="19"/>
       <c r="I8" s="19"/>
@@ -7768,13 +7997,13 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B9" s="19">
         <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D9" s="20" t="s">
         <v>12</v>
@@ -7786,7 +8015,7 @@
         <v>46</v>
       </c>
       <c r="G9" s="19">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="H9" s="19"/>
       <c r="I9" s="19"/>
@@ -7795,13 +8024,13 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B10" s="19">
         <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D10" s="20" t="s">
         <v>12</v>
@@ -7813,7 +8042,7 @@
         <v>46</v>
       </c>
       <c r="G10" s="19">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="H10" s="19"/>
       <c r="I10" s="19"/>
@@ -7822,13 +8051,13 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>229</v>
+        <v>177</v>
       </c>
       <c r="B11" s="19">
         <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>229</v>
+        <v>177</v>
       </c>
       <c r="D11" s="20" t="s">
         <v>12</v>
@@ -7837,10 +8066,10 @@
         <v>1</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G11" s="19">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="H11" s="19"/>
       <c r="I11" s="19"/>
@@ -7849,13 +8078,13 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>230</v>
+        <v>178</v>
       </c>
       <c r="B12" s="19">
         <v>1</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>230</v>
+        <v>178</v>
       </c>
       <c r="D12" s="20" t="s">
         <v>12</v>
@@ -7864,10 +8093,10 @@
         <v>1</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G12" s="19">
-        <v>31</v>
+        <v>127</v>
       </c>
       <c r="H12" s="19"/>
       <c r="I12" s="19"/>
@@ -7876,13 +8105,13 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B13" s="19">
         <v>1</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D13" s="20" t="s">
         <v>12</v>
@@ -7894,7 +8123,7 @@
         <v>47</v>
       </c>
       <c r="G13" s="19">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="H13" s="19"/>
       <c r="I13" s="19"/>
@@ -7903,13 +8132,13 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B14" s="19">
         <v>1</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D14" s="20" t="s">
         <v>12</v>
@@ -7921,7 +8150,7 @@
         <v>47</v>
       </c>
       <c r="G14" s="19">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="H14" s="19"/>
       <c r="I14" s="19"/>
@@ -7930,13 +8159,13 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B15" s="19">
         <v>1</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D15" s="20" t="s">
         <v>12</v>
@@ -7948,7 +8177,7 @@
         <v>47</v>
       </c>
       <c r="G15" s="19">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="H15" s="19"/>
       <c r="I15" s="19"/>
@@ -7957,13 +8186,13 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B16" s="19">
         <v>1</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D16" s="20" t="s">
         <v>12</v>
@@ -7975,7 +8204,7 @@
         <v>47</v>
       </c>
       <c r="G16" s="19">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -7984,13 +8213,13 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B17" s="19">
         <v>1</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D17" s="20" t="s">
         <v>12</v>
@@ -8002,7 +8231,7 @@
         <v>47</v>
       </c>
       <c r="G17" s="19">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -8011,13 +8240,13 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B18" s="19">
         <v>1</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D18" s="20" t="s">
         <v>12</v>
@@ -8029,7 +8258,7 @@
         <v>47</v>
       </c>
       <c r="G18" s="19">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -8037,26 +8266,54 @@
       <c r="K18" s="19"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="1"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
+      <c r="A19" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B19" s="19">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="19">
+        <v>1</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="G19" s="19">
+        <v>111</v>
+      </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
       <c r="J19" s="19"/>
       <c r="K19" s="19"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="1"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
+      <c r="A20" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B20" s="19">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="19">
+        <v>1</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="G20" s="19">
+        <v>127</v>
+      </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
       <c r="J20" s="19"/>
@@ -9479,26 +9736,55 @@
       <c r="J129" s="19"/>
       <c r="K129" s="19"/>
     </row>
+    <row r="130" spans="1:11">
+      <c r="A130" s="1"/>
+      <c r="B130" s="19"/>
+      <c r="C130" s="2"/>
+      <c r="D130" s="20"/>
+      <c r="E130" s="19"/>
+      <c r="F130" s="19"/>
+      <c r="G130" s="19"/>
+      <c r="H130" s="19"/>
+      <c r="I130" s="19"/>
+      <c r="J130" s="19"/>
+      <c r="K130" s="19"/>
+    </row>
+    <row r="131" spans="1:11">
+      <c r="A131" s="1"/>
+      <c r="B131" s="19"/>
+      <c r="C131" s="2"/>
+      <c r="D131" s="20"/>
+      <c r="E131" s="19"/>
+      <c r="F131" s="19"/>
+      <c r="G131" s="19"/>
+      <c r="H131" s="19"/>
+      <c r="I131" s="19"/>
+      <c r="J131" s="19"/>
+      <c r="K131" s="19"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
   <phoneticPr fontId="8"/>
   <dataValidations count="5">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If cell value is empty, MSB will be set 0._x000a__x000a_By my research, Maybe Cubase will not recognize MSB." sqref="K2:K129">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If cell value is empty, MSB will be set 0._x000a__x000a_By my research, Maybe Cubase will not recognize MSB." sqref="K4:K131">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use Program Change, set cell value empty." sqref="J2:J129">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use Program Change, set cell value empty." sqref="J4:J131">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty." sqref="G2:G129">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty." sqref="G4:G131">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H2:I129">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H4:I131">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B129">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B131">
       <formula1>"0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -9516,7 +9802,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>F2:F129</xm:sqref>
+          <xm:sqref>F4:F131</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -9525,7 +9811,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>E2:E129</xm:sqref>
+          <xm:sqref>E4:E131</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -9534,7 +9820,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>D2:D129</xm:sqref>
+          <xm:sqref>D4:D131</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -11007,10 +11293,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K129"/>
+  <dimension ref="A1:K131"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -11027,102 +11313,59 @@
     <col min="1026" max="16384" width="8.875" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:11" ht="30" customHeight="1">
+      <c r="A1" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="C1" s="24"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I3" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J3" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K3" s="17" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="19">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="19">
-        <v>1</v>
-      </c>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19">
-        <v>120</v>
-      </c>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B3" s="19">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="19">
-        <v>1</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="19">
-        <v>120</v>
-      </c>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>160</v>
+        <v>11</v>
       </c>
       <c r="B4" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>160</v>
+        <v>11</v>
       </c>
       <c r="D4" s="20" t="s">
         <v>12</v>
@@ -11130,9 +11373,7 @@
       <c r="E4" s="19">
         <v>1</v>
       </c>
-      <c r="F4" s="19" t="s">
-        <v>22</v>
-      </c>
+      <c r="F4" s="19"/>
       <c r="G4" s="19">
         <v>120</v>
       </c>
@@ -11143,13 +11384,13 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B5" s="19">
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D5" s="20" t="s">
         <v>12</v>
@@ -11158,7 +11399,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G5" s="19">
         <v>120</v>
@@ -11170,13 +11411,13 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B6" s="19">
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D6" s="20" t="s">
         <v>12</v>
@@ -11185,10 +11426,10 @@
         <v>1</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="G6" s="19">
-        <v>64</v>
+        <v>120</v>
       </c>
       <c r="H6" s="19"/>
       <c r="I6" s="19"/>
@@ -11197,13 +11438,13 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B7" s="19">
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D7" s="20" t="s">
         <v>12</v>
@@ -11212,10 +11453,10 @@
         <v>1</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="G7" s="19">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="H7" s="19"/>
       <c r="I7" s="19"/>
@@ -11223,26 +11464,54 @@
       <c r="K7" s="19"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="1"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
+      <c r="A8" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B8" s="19">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="19">
+        <v>1</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="19">
+        <v>64</v>
+      </c>
       <c r="H8" s="19"/>
       <c r="I8" s="19"/>
       <c r="J8" s="19"/>
       <c r="K8" s="19"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="1"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
+      <c r="A9" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B9" s="19">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="19">
+        <v>1</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="19">
+        <v>65</v>
+      </c>
       <c r="H9" s="19"/>
       <c r="I9" s="19"/>
       <c r="J9" s="19"/>
@@ -12808,26 +13077,55 @@
       <c r="J129" s="19"/>
       <c r="K129" s="19"/>
     </row>
+    <row r="130" spans="1:11">
+      <c r="A130" s="1"/>
+      <c r="B130" s="19"/>
+      <c r="C130" s="2"/>
+      <c r="D130" s="20"/>
+      <c r="E130" s="19"/>
+      <c r="F130" s="19"/>
+      <c r="G130" s="19"/>
+      <c r="H130" s="19"/>
+      <c r="I130" s="19"/>
+      <c r="J130" s="19"/>
+      <c r="K130" s="19"/>
+    </row>
+    <row r="131" spans="1:11">
+      <c r="A131" s="1"/>
+      <c r="B131" s="19"/>
+      <c r="C131" s="2"/>
+      <c r="D131" s="20"/>
+      <c r="E131" s="19"/>
+      <c r="F131" s="19"/>
+      <c r="G131" s="19"/>
+      <c r="H131" s="19"/>
+      <c r="I131" s="19"/>
+      <c r="J131" s="19"/>
+      <c r="K131" s="19"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
   <phoneticPr fontId="8"/>
   <dataValidations count="5">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If cell value is empty, MSB will be set 0._x000a__x000a_By my research, Maybe Cubase will not recognize MSB." sqref="K2:K129">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If cell value is empty, MSB will be set 0._x000a__x000a_By my research, Maybe Cubase will not recognize MSB." sqref="K4:K131">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use Program Change, set cell value empty." sqref="J2:J129">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use Program Change, set cell value empty." sqref="J4:J131">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty." sqref="G2:G129">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty." sqref="G4:G131">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H2:I129">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H4:I131">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B129">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B131">
       <formula1>"0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -12845,7 +13143,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>F2:F129</xm:sqref>
+          <xm:sqref>F4:F131</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -12854,7 +13152,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>E2:E129</xm:sqref>
+          <xm:sqref>E4:E131</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -12863,7 +13161,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>D2:D129</xm:sqref>
+          <xm:sqref>D4:D131</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -12873,10 +13171,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K129"/>
+  <dimension ref="A1:K131"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -12893,100 +13191,59 @@
     <col min="1026" max="16384" width="8.875" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:11" ht="30" customHeight="1">
+      <c r="A1" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>240</v>
+      </c>
+      <c r="C1" s="24"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I3" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J3" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K3" s="17" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="19">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="19">
-        <v>1</v>
-      </c>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B3" s="19">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="19">
-        <v>1</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="19">
-        <v>120</v>
-      </c>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>165</v>
+        <v>11</v>
       </c>
       <c r="B4" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>165</v>
+        <v>11</v>
       </c>
       <c r="D4" s="20" t="s">
         <v>12</v>
@@ -12994,12 +13251,8 @@
       <c r="E4" s="19">
         <v>1</v>
       </c>
-      <c r="F4" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="19">
-        <v>120</v>
-      </c>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
       <c r="H4" s="19"/>
       <c r="I4" s="19"/>
       <c r="J4" s="19"/>
@@ -13007,13 +13260,13 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B5" s="19">
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D5" s="20" t="s">
         <v>12</v>
@@ -13022,7 +13275,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G5" s="19">
         <v>120</v>
@@ -13034,13 +13287,13 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B6" s="19">
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D6" s="20" t="s">
         <v>12</v>
@@ -13049,7 +13302,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G6" s="19">
         <v>120</v>
@@ -13061,13 +13314,13 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B7" s="19">
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D7" s="20" t="s">
         <v>12</v>
@@ -13076,7 +13329,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G7" s="19">
         <v>120</v>
@@ -13088,13 +13341,13 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>145</v>
+        <v>167</v>
       </c>
       <c r="B8" s="19">
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>145</v>
+        <v>167</v>
       </c>
       <c r="D8" s="20" t="s">
         <v>12</v>
@@ -13103,7 +13356,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G8" s="19">
         <v>120</v>
@@ -13115,13 +13368,13 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>146</v>
+        <v>168</v>
       </c>
       <c r="B9" s="19">
         <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>146</v>
+        <v>168</v>
       </c>
       <c r="D9" s="20" t="s">
         <v>12</v>
@@ -13130,7 +13383,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G9" s="19">
         <v>120</v>
@@ -13142,13 +13395,13 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B10" s="19">
         <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D10" s="20" t="s">
         <v>12</v>
@@ -13157,7 +13410,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G10" s="19">
         <v>120</v>
@@ -13169,13 +13422,13 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B11" s="19">
         <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D11" s="20" t="s">
         <v>12</v>
@@ -13184,7 +13437,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G11" s="19">
         <v>120</v>
@@ -13196,13 +13449,13 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B12" s="19">
         <v>1</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D12" s="20" t="s">
         <v>12</v>
@@ -13211,7 +13464,7 @@
         <v>1</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G12" s="19">
         <v>120</v>
@@ -13223,13 +13476,13 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B13" s="19">
         <v>1</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D13" s="20" t="s">
         <v>12</v>
@@ -13238,7 +13491,7 @@
         <v>1</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G13" s="19">
         <v>120</v>
@@ -13250,13 +13503,13 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B14" s="19">
         <v>1</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D14" s="20" t="s">
         <v>12</v>
@@ -13265,7 +13518,7 @@
         <v>1</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G14" s="19">
         <v>120</v>
@@ -13277,13 +13530,13 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B15" s="19">
         <v>1</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D15" s="20" t="s">
         <v>12</v>
@@ -13292,7 +13545,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G15" s="19">
         <v>120</v>
@@ -13304,13 +13557,13 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B16" s="19">
         <v>1</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D16" s="20" t="s">
         <v>12</v>
@@ -13319,7 +13572,7 @@
         <v>1</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G16" s="19">
         <v>120</v>
@@ -13331,13 +13584,13 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B17" s="19">
         <v>1</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D17" s="20" t="s">
         <v>12</v>
@@ -13346,7 +13599,7 @@
         <v>1</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G17" s="19">
         <v>120</v>
@@ -13358,13 +13611,13 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="B18" s="19">
         <v>1</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="D18" s="20" t="s">
         <v>12</v>
@@ -13373,7 +13626,7 @@
         <v>1</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G18" s="19">
         <v>120</v>
@@ -13385,13 +13638,13 @@
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="B19" s="19">
         <v>1</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="D19" s="20" t="s">
         <v>12</v>
@@ -13400,7 +13653,7 @@
         <v>1</v>
       </c>
       <c r="F19" s="19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G19" s="19">
         <v>120</v>
@@ -13412,13 +13665,13 @@
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="B20" s="19">
         <v>1</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="D20" s="20" t="s">
         <v>12</v>
@@ -13427,7 +13680,7 @@
         <v>1</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G20" s="19">
         <v>120</v>
@@ -13439,13 +13692,13 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="B21" s="19">
         <v>1</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="D21" s="20" t="s">
         <v>12</v>
@@ -13454,7 +13707,7 @@
         <v>1</v>
       </c>
       <c r="F21" s="19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G21" s="19">
         <v>120</v>
@@ -13466,13 +13719,13 @@
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B22" s="19">
         <v>1</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D22" s="20" t="s">
         <v>12</v>
@@ -13481,7 +13734,7 @@
         <v>1</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G22" s="19">
         <v>120</v>
@@ -13492,26 +13745,54 @@
       <c r="K22" s="19"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="1"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
+      <c r="A23" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B23" s="19">
+        <v>1</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="19">
+        <v>1</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="G23" s="19">
+        <v>120</v>
+      </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
       <c r="J23" s="19"/>
       <c r="K23" s="19"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="1"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
+      <c r="A24" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B24" s="19">
+        <v>1</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="19">
+        <v>1</v>
+      </c>
+      <c r="F24" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="G24" s="19">
+        <v>120</v>
+      </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
       <c r="J24" s="19"/>
@@ -14882,26 +15163,55 @@
       <c r="J129" s="19"/>
       <c r="K129" s="19"/>
     </row>
+    <row r="130" spans="1:11">
+      <c r="A130" s="1"/>
+      <c r="B130" s="19"/>
+      <c r="C130" s="2"/>
+      <c r="D130" s="20"/>
+      <c r="E130" s="19"/>
+      <c r="F130" s="19"/>
+      <c r="G130" s="19"/>
+      <c r="H130" s="19"/>
+      <c r="I130" s="19"/>
+      <c r="J130" s="19"/>
+      <c r="K130" s="19"/>
+    </row>
+    <row r="131" spans="1:11">
+      <c r="A131" s="1"/>
+      <c r="B131" s="19"/>
+      <c r="C131" s="2"/>
+      <c r="D131" s="20"/>
+      <c r="E131" s="19"/>
+      <c r="F131" s="19"/>
+      <c r="G131" s="19"/>
+      <c r="H131" s="19"/>
+      <c r="I131" s="19"/>
+      <c r="J131" s="19"/>
+      <c r="K131" s="19"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
   <phoneticPr fontId="8"/>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B129">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B131">
       <formula1>"0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H2:I129">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H4:I131">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty." sqref="G2:G129">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty." sqref="G4:G131">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use Program Change, set cell value empty." sqref="J2:J129">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use Program Change, set cell value empty." sqref="J4:J131">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If cell value is empty, MSB will be set 0._x000a__x000a_By my research, Maybe Cubase will not recognize MSB." sqref="K2:K129">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If cell value is empty, MSB will be set 0._x000a__x000a_By my research, Maybe Cubase will not recognize MSB." sqref="K4:K131">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
@@ -14919,7 +15229,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>D2:D129</xm:sqref>
+          <xm:sqref>D4:D131</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -14928,7 +15238,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>E2:E129</xm:sqref>
+          <xm:sqref>E4:E131</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" promptTitle="MIDI Note" prompt="Choose from Drop-down list or imput number directly(0-127)_x000a__x000a_If don’t use MIDI Note, set Cell value empty.">
           <x14:formula1>
@@ -14937,7 +15247,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>F2:F129</xm:sqref>
+          <xm:sqref>F4:F131</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -14947,10 +15257,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K129"/>
+  <dimension ref="A1:K131"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -14967,100 +15277,59 @@
     <col min="1026" max="16384" width="8.875" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:11" ht="30" customHeight="1">
+      <c r="A1" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>241</v>
+      </c>
+      <c r="C1" s="24"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I3" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J3" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K3" s="17" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="19">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="19">
-        <v>1</v>
-      </c>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B3" s="19">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="19">
-        <v>1</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="19">
-        <v>120</v>
-      </c>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>160</v>
+        <v>11</v>
       </c>
       <c r="B4" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>160</v>
+        <v>11</v>
       </c>
       <c r="D4" s="20" t="s">
         <v>12</v>
@@ -15068,12 +15337,8 @@
       <c r="E4" s="19">
         <v>1</v>
       </c>
-      <c r="F4" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="19">
-        <v>120</v>
-      </c>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
       <c r="H4" s="19"/>
       <c r="I4" s="19"/>
       <c r="J4" s="19"/>
@@ -15081,13 +15346,13 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B5" s="19">
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D5" s="20" t="s">
         <v>12</v>
@@ -15096,7 +15361,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G5" s="19">
         <v>120</v>
@@ -15107,26 +15372,54 @@
       <c r="K5" s="19"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="1"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
+      <c r="A6" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B6" s="19">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="19">
+        <v>1</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="19">
+        <v>120</v>
+      </c>
       <c r="H6" s="19"/>
       <c r="I6" s="19"/>
       <c r="J6" s="19"/>
       <c r="K6" s="19"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="1"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
+      <c r="A7" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B7" s="19">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="19">
+        <v>1</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="19">
+        <v>120</v>
+      </c>
       <c r="H7" s="19"/>
       <c r="I7" s="19"/>
       <c r="J7" s="19"/>
@@ -16718,26 +17011,55 @@
       <c r="J129" s="19"/>
       <c r="K129" s="19"/>
     </row>
+    <row r="130" spans="1:11">
+      <c r="A130" s="1"/>
+      <c r="B130" s="19"/>
+      <c r="C130" s="2"/>
+      <c r="D130" s="20"/>
+      <c r="E130" s="19"/>
+      <c r="F130" s="19"/>
+      <c r="G130" s="19"/>
+      <c r="H130" s="19"/>
+      <c r="I130" s="19"/>
+      <c r="J130" s="19"/>
+      <c r="K130" s="19"/>
+    </row>
+    <row r="131" spans="1:11">
+      <c r="A131" s="1"/>
+      <c r="B131" s="19"/>
+      <c r="C131" s="2"/>
+      <c r="D131" s="20"/>
+      <c r="E131" s="19"/>
+      <c r="F131" s="19"/>
+      <c r="G131" s="19"/>
+      <c r="H131" s="19"/>
+      <c r="I131" s="19"/>
+      <c r="J131" s="19"/>
+      <c r="K131" s="19"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
   <phoneticPr fontId="8"/>
   <dataValidations count="5">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If cell value is empty, MSB will be set 0._x000a__x000a_By my research, Maybe Cubase will not recognize MSB." sqref="K2:K129">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If cell value is empty, MSB will be set 0._x000a__x000a_By my research, Maybe Cubase will not recognize MSB." sqref="K4:K131">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use Program Change, set cell value empty." sqref="J2:J129">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use Program Change, set cell value empty." sqref="J4:J131">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty." sqref="G2:G129">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty." sqref="G4:G131">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H2:I129">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H4:I131">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B129">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B131">
       <formula1>"0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -16755,7 +17077,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>F2:F129</xm:sqref>
+          <xm:sqref>F4:F131</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -16764,7 +17086,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>E2:E129</xm:sqref>
+          <xm:sqref>E4:E131</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -16773,7 +17095,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>D2:D129</xm:sqref>
+          <xm:sqref>D4:D131</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -16783,12 +17105,12 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K129"/>
+  <dimension ref="A1:K131"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
@@ -16803,100 +17125,59 @@
     <col min="1026" max="16384" width="8.875" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:11" ht="30" customHeight="1">
+      <c r="A1" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>242</v>
+      </c>
+      <c r="C1" s="24"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I3" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J3" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K3" s="17" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="19">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="19">
-        <v>1</v>
-      </c>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B3" s="19">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="19">
-        <v>1</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="G3" s="19">
-        <v>15</v>
-      </c>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>172</v>
+        <v>11</v>
       </c>
       <c r="B4" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>172</v>
+        <v>11</v>
       </c>
       <c r="D4" s="20" t="s">
         <v>12</v>
@@ -16904,12 +17185,8 @@
       <c r="E4" s="19">
         <v>1</v>
       </c>
-      <c r="F4" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="G4" s="19">
-        <v>31</v>
-      </c>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
       <c r="H4" s="19"/>
       <c r="I4" s="19"/>
       <c r="J4" s="19"/>
@@ -16917,13 +17194,13 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B5" s="19">
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D5" s="20" t="s">
         <v>12</v>
@@ -16935,7 +17212,7 @@
         <v>46</v>
       </c>
       <c r="G5" s="19">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="H5" s="19"/>
       <c r="I5" s="19"/>
@@ -16944,13 +17221,13 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B6" s="19">
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D6" s="20" t="s">
         <v>12</v>
@@ -16962,7 +17239,7 @@
         <v>46</v>
       </c>
       <c r="G6" s="19">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="H6" s="19"/>
       <c r="I6" s="19"/>
@@ -16971,13 +17248,13 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B7" s="19">
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D7" s="20" t="s">
         <v>12</v>
@@ -16989,7 +17266,7 @@
         <v>46</v>
       </c>
       <c r="G7" s="19">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="H7" s="19"/>
       <c r="I7" s="19"/>
@@ -16998,13 +17275,13 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B8" s="19">
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D8" s="20" t="s">
         <v>12</v>
@@ -17016,7 +17293,7 @@
         <v>46</v>
       </c>
       <c r="G8" s="19">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="H8" s="19"/>
       <c r="I8" s="19"/>
@@ -17025,13 +17302,13 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B9" s="19">
         <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D9" s="20" t="s">
         <v>12</v>
@@ -17043,7 +17320,7 @@
         <v>46</v>
       </c>
       <c r="G9" s="19">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="H9" s="19"/>
       <c r="I9" s="19"/>
@@ -17052,13 +17329,13 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B10" s="19">
         <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D10" s="20" t="s">
         <v>12</v>
@@ -17070,7 +17347,7 @@
         <v>46</v>
       </c>
       <c r="G10" s="19">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="H10" s="19"/>
       <c r="I10" s="19"/>
@@ -17079,13 +17356,13 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B11" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D11" s="20" t="s">
         <v>12</v>
@@ -17094,10 +17371,10 @@
         <v>1</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G11" s="19">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="H11" s="19"/>
       <c r="I11" s="19"/>
@@ -17106,13 +17383,13 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B12" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D12" s="20" t="s">
         <v>12</v>
@@ -17121,10 +17398,10 @@
         <v>1</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G12" s="19">
-        <v>31</v>
+        <v>127</v>
       </c>
       <c r="H12" s="19"/>
       <c r="I12" s="19"/>
@@ -17133,13 +17410,13 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B13" s="19">
         <v>2</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D13" s="20" t="s">
         <v>12</v>
@@ -17151,7 +17428,7 @@
         <v>47</v>
       </c>
       <c r="G13" s="19">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="H13" s="19"/>
       <c r="I13" s="19"/>
@@ -17160,13 +17437,13 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B14" s="19">
         <v>2</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D14" s="20" t="s">
         <v>12</v>
@@ -17178,7 +17455,7 @@
         <v>47</v>
       </c>
       <c r="G14" s="19">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="H14" s="19"/>
       <c r="I14" s="19"/>
@@ -17187,13 +17464,13 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B15" s="19">
         <v>2</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D15" s="20" t="s">
         <v>12</v>
@@ -17205,7 +17482,7 @@
         <v>47</v>
       </c>
       <c r="G15" s="19">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="H15" s="19"/>
       <c r="I15" s="19"/>
@@ -17214,13 +17491,13 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B16" s="19">
         <v>2</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D16" s="20" t="s">
         <v>12</v>
@@ -17232,7 +17509,7 @@
         <v>47</v>
       </c>
       <c r="G16" s="19">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -17241,13 +17518,13 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B17" s="19">
         <v>2</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D17" s="20" t="s">
         <v>12</v>
@@ -17259,7 +17536,7 @@
         <v>47</v>
       </c>
       <c r="G17" s="19">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -17268,13 +17545,13 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B18" s="19">
         <v>2</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D18" s="20" t="s">
         <v>12</v>
@@ -17286,7 +17563,7 @@
         <v>47</v>
       </c>
       <c r="G18" s="19">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -17294,26 +17571,54 @@
       <c r="K18" s="19"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="1"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
+      <c r="A19" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B19" s="19">
+        <v>2</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="19">
+        <v>1</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="G19" s="19">
+        <v>111</v>
+      </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
       <c r="J19" s="19"/>
       <c r="K19" s="19"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="1"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
+      <c r="A20" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B20" s="19">
+        <v>2</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="19">
+        <v>1</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="G20" s="19">
+        <v>127</v>
+      </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
       <c r="J20" s="19"/>
@@ -18736,26 +19041,55 @@
       <c r="J129" s="19"/>
       <c r="K129" s="19"/>
     </row>
+    <row r="130" spans="1:11">
+      <c r="A130" s="1"/>
+      <c r="B130" s="19"/>
+      <c r="C130" s="2"/>
+      <c r="D130" s="20"/>
+      <c r="E130" s="19"/>
+      <c r="F130" s="19"/>
+      <c r="G130" s="19"/>
+      <c r="H130" s="19"/>
+      <c r="I130" s="19"/>
+      <c r="J130" s="19"/>
+      <c r="K130" s="19"/>
+    </row>
+    <row r="131" spans="1:11">
+      <c r="A131" s="1"/>
+      <c r="B131" s="19"/>
+      <c r="C131" s="2"/>
+      <c r="D131" s="20"/>
+      <c r="E131" s="19"/>
+      <c r="F131" s="19"/>
+      <c r="G131" s="19"/>
+      <c r="H131" s="19"/>
+      <c r="I131" s="19"/>
+      <c r="J131" s="19"/>
+      <c r="K131" s="19"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
   <phoneticPr fontId="8"/>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B129">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B131">
       <formula1>"0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H2:I129">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H4:I131">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty." sqref="G2:G129">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty." sqref="G4:G131">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use Program Change, set cell value empty." sqref="J2:J129">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use Program Change, set cell value empty." sqref="J4:J131">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If cell value is empty, MSB will be set 0._x000a__x000a_By my research, Maybe Cubase will not recognize MSB." sqref="K2:K129">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If cell value is empty, MSB will be set 0._x000a__x000a_By my research, Maybe Cubase will not recognize MSB." sqref="K4:K131">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
@@ -18773,7 +19107,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>D2:D129</xm:sqref>
+          <xm:sqref>D4:D131</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -18782,7 +19116,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>E2:E129</xm:sqref>
+          <xm:sqref>E4:E131</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" promptTitle="MIDI Note" prompt="Choose from Drop-down list or imput number directly(0-127)_x000a__x000a_If don’t use MIDI Note, set Cell value empty.">
           <x14:formula1>
@@ -18791,7 +19125,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>F2:F129</xm:sqref>
+          <xm:sqref>F4:F131</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -18801,10 +19135,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K129"/>
+  <dimension ref="A1:K131"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -18821,100 +19155,59 @@
     <col min="1026" max="16384" width="8.875" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:11" ht="30" customHeight="1">
+      <c r="A1" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>243</v>
+      </c>
+      <c r="C1" s="24"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I3" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J3" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K3" s="17" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="19">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="19">
-        <v>1</v>
-      </c>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="B3" s="19">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="19">
-        <v>1</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="G3" s="19">
-        <v>15</v>
-      </c>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>188</v>
+        <v>11</v>
       </c>
       <c r="B4" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>188</v>
+        <v>11</v>
       </c>
       <c r="D4" s="20" t="s">
         <v>12</v>
@@ -18922,12 +19215,8 @@
       <c r="E4" s="19">
         <v>1</v>
       </c>
-      <c r="F4" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="G4" s="19">
-        <v>31</v>
-      </c>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
       <c r="H4" s="19"/>
       <c r="I4" s="19"/>
       <c r="J4" s="19"/>
@@ -18935,13 +19224,13 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B5" s="19">
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D5" s="20" t="s">
         <v>12</v>
@@ -18953,7 +19242,7 @@
         <v>98</v>
       </c>
       <c r="G5" s="19">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="H5" s="19"/>
       <c r="I5" s="19"/>
@@ -18962,13 +19251,13 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B6" s="19">
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D6" s="20" t="s">
         <v>12</v>
@@ -18980,7 +19269,7 @@
         <v>98</v>
       </c>
       <c r="G6" s="19">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="H6" s="19"/>
       <c r="I6" s="19"/>
@@ -18989,13 +19278,13 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B7" s="19">
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D7" s="20" t="s">
         <v>12</v>
@@ -19007,7 +19296,7 @@
         <v>98</v>
       </c>
       <c r="G7" s="19">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="H7" s="19"/>
       <c r="I7" s="19"/>
@@ -19016,13 +19305,13 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B8" s="19">
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D8" s="20" t="s">
         <v>12</v>
@@ -19034,7 +19323,7 @@
         <v>98</v>
       </c>
       <c r="G8" s="19">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="H8" s="19"/>
       <c r="I8" s="19"/>
@@ -19043,13 +19332,13 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B9" s="19">
         <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D9" s="20" t="s">
         <v>12</v>
@@ -19061,7 +19350,7 @@
         <v>98</v>
       </c>
       <c r="G9" s="19">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="H9" s="19"/>
       <c r="I9" s="19"/>
@@ -19070,13 +19359,13 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B10" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D10" s="20" t="s">
         <v>12</v>
@@ -19088,7 +19377,7 @@
         <v>98</v>
       </c>
       <c r="G10" s="19">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="H10" s="19"/>
       <c r="I10" s="19"/>
@@ -19097,13 +19386,13 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B11" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D11" s="20" t="s">
         <v>12</v>
@@ -19112,10 +19401,10 @@
         <v>1</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G11" s="19">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="H11" s="19"/>
       <c r="I11" s="19"/>
@@ -19124,13 +19413,13 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B12" s="19">
         <v>2</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D12" s="20" t="s">
         <v>12</v>
@@ -19139,10 +19428,10 @@
         <v>1</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G12" s="19">
-        <v>31</v>
+        <v>127</v>
       </c>
       <c r="H12" s="19"/>
       <c r="I12" s="19"/>
@@ -19151,13 +19440,13 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B13" s="19">
         <v>2</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D13" s="20" t="s">
         <v>12</v>
@@ -19169,7 +19458,7 @@
         <v>99</v>
       </c>
       <c r="G13" s="19">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="H13" s="19"/>
       <c r="I13" s="19"/>
@@ -19178,13 +19467,13 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B14" s="19">
         <v>2</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D14" s="20" t="s">
         <v>12</v>
@@ -19196,7 +19485,7 @@
         <v>99</v>
       </c>
       <c r="G14" s="19">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="H14" s="19"/>
       <c r="I14" s="19"/>
@@ -19205,13 +19494,13 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B15" s="19">
         <v>2</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D15" s="20" t="s">
         <v>12</v>
@@ -19223,7 +19512,7 @@
         <v>99</v>
       </c>
       <c r="G15" s="19">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="H15" s="19"/>
       <c r="I15" s="19"/>
@@ -19232,13 +19521,13 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B16" s="19">
         <v>2</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D16" s="20" t="s">
         <v>12</v>
@@ -19250,7 +19539,7 @@
         <v>99</v>
       </c>
       <c r="G16" s="19">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -19259,13 +19548,13 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B17" s="19">
         <v>2</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D17" s="20" t="s">
         <v>12</v>
@@ -19277,7 +19566,7 @@
         <v>99</v>
       </c>
       <c r="G17" s="19">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -19286,13 +19575,13 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B18" s="19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D18" s="20" t="s">
         <v>12</v>
@@ -19304,7 +19593,7 @@
         <v>99</v>
       </c>
       <c r="G18" s="19">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -19313,13 +19602,13 @@
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B19" s="19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D19" s="20" t="s">
         <v>12</v>
@@ -19328,10 +19617,10 @@
         <v>1</v>
       </c>
       <c r="F19" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G19" s="19">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -19340,13 +19629,13 @@
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B20" s="19">
         <v>3</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D20" s="20" t="s">
         <v>12</v>
@@ -19355,10 +19644,10 @@
         <v>1</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G20" s="19">
-        <v>31</v>
+        <v>127</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -19367,13 +19656,13 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B21" s="19">
         <v>3</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D21" s="20" t="s">
         <v>12</v>
@@ -19385,7 +19674,7 @@
         <v>100</v>
       </c>
       <c r="G21" s="19">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -19394,13 +19683,13 @@
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B22" s="19">
         <v>3</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D22" s="20" t="s">
         <v>12</v>
@@ -19412,7 +19701,7 @@
         <v>100</v>
       </c>
       <c r="G22" s="19">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -19421,13 +19710,13 @@
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B23" s="19">
         <v>3</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D23" s="20" t="s">
         <v>12</v>
@@ -19439,7 +19728,7 @@
         <v>100</v>
       </c>
       <c r="G23" s="19">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -19448,13 +19737,13 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B24" s="19">
         <v>3</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D24" s="20" t="s">
         <v>12</v>
@@ -19466,7 +19755,7 @@
         <v>100</v>
       </c>
       <c r="G24" s="19">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -19475,13 +19764,13 @@
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B25" s="19">
         <v>3</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D25" s="20" t="s">
         <v>12</v>
@@ -19493,7 +19782,7 @@
         <v>100</v>
       </c>
       <c r="G25" s="19">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -19502,13 +19791,13 @@
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B26" s="19">
         <v>3</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D26" s="20" t="s">
         <v>12</v>
@@ -19520,7 +19809,7 @@
         <v>100</v>
       </c>
       <c r="G26" s="19">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -19528,26 +19817,54 @@
       <c r="K26" s="19"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="1"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
+      <c r="A27" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B27" s="19">
+        <v>3</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="19">
+        <v>1</v>
+      </c>
+      <c r="F27" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="G27" s="19">
+        <v>111</v>
+      </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
       <c r="J27" s="19"/>
       <c r="K27" s="19"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="1"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
+      <c r="A28" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B28" s="19">
+        <v>3</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="19">
+        <v>1</v>
+      </c>
+      <c r="F28" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="G28" s="19">
+        <v>127</v>
+      </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
       <c r="J28" s="19"/>
@@ -20866,26 +21183,55 @@
       <c r="J129" s="19"/>
       <c r="K129" s="19"/>
     </row>
+    <row r="130" spans="1:11">
+      <c r="A130" s="1"/>
+      <c r="B130" s="19"/>
+      <c r="C130" s="2"/>
+      <c r="D130" s="20"/>
+      <c r="E130" s="19"/>
+      <c r="F130" s="19"/>
+      <c r="G130" s="19"/>
+      <c r="H130" s="19"/>
+      <c r="I130" s="19"/>
+      <c r="J130" s="19"/>
+      <c r="K130" s="19"/>
+    </row>
+    <row r="131" spans="1:11">
+      <c r="A131" s="1"/>
+      <c r="B131" s="19"/>
+      <c r="C131" s="2"/>
+      <c r="D131" s="20"/>
+      <c r="E131" s="19"/>
+      <c r="F131" s="19"/>
+      <c r="G131" s="19"/>
+      <c r="H131" s="19"/>
+      <c r="I131" s="19"/>
+      <c r="J131" s="19"/>
+      <c r="K131" s="19"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
   <phoneticPr fontId="8"/>
   <dataValidations count="5">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If cell value is empty, MSB will be set 0._x000a__x000a_By my research, Maybe Cubase will not recognize MSB." sqref="K2:K129">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If cell value is empty, MSB will be set 0._x000a__x000a_By my research, Maybe Cubase will not recognize MSB." sqref="K4:K131">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use Program Change, set cell value empty." sqref="J2:J129">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use Program Change, set cell value empty." sqref="J4:J131">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty." sqref="G2:G129">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty." sqref="G4:G131">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H2:I129">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H4:I131">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B129">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B131">
       <formula1>"0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -20903,7 +21249,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>F2:F129</xm:sqref>
+          <xm:sqref>F4:F131</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -20912,7 +21258,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>E2:E129</xm:sqref>
+          <xm:sqref>E4:E131</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -20921,7 +21267,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>D2:D129</xm:sqref>
+          <xm:sqref>D4:D131</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -20931,10 +21277,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K129"/>
+  <dimension ref="A1:K131"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -20951,100 +21297,59 @@
     <col min="1026" max="16384" width="8.875" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:11" ht="30" customHeight="1">
+      <c r="A1" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>244</v>
+      </c>
+      <c r="C1" s="24"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I3" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J3" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K3" s="17" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="19">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="19">
-        <v>1</v>
-      </c>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="B3" s="19">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="19">
-        <v>1</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="G3" s="19">
-        <v>120</v>
-      </c>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>212</v>
+        <v>11</v>
       </c>
       <c r="B4" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>212</v>
+        <v>11</v>
       </c>
       <c r="D4" s="20" t="s">
         <v>12</v>
@@ -21052,12 +21357,8 @@
       <c r="E4" s="19">
         <v>1</v>
       </c>
-      <c r="F4" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="G4" s="19">
-        <v>120</v>
-      </c>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
       <c r="H4" s="19"/>
       <c r="I4" s="19"/>
       <c r="J4" s="19"/>
@@ -21065,13 +21366,13 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B5" s="19">
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D5" s="20" t="s">
         <v>12</v>
@@ -21080,7 +21381,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G5" s="19">
         <v>120</v>
@@ -21092,13 +21393,13 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B6" s="19">
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D6" s="20" t="s">
         <v>12</v>
@@ -21107,7 +21408,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G6" s="19">
         <v>120</v>
@@ -21118,26 +21419,54 @@
       <c r="K6" s="19"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="1"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
+      <c r="A7" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B7" s="19">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="19">
+        <v>1</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="G7" s="19">
+        <v>120</v>
+      </c>
       <c r="H7" s="19"/>
       <c r="I7" s="19"/>
       <c r="J7" s="19"/>
       <c r="K7" s="19"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="1"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
+      <c r="A8" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B8" s="19">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="19">
+        <v>1</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="G8" s="19">
+        <v>120</v>
+      </c>
       <c r="H8" s="19"/>
       <c r="I8" s="19"/>
       <c r="J8" s="19"/>
@@ -22716,26 +23045,55 @@
       <c r="J129" s="19"/>
       <c r="K129" s="19"/>
     </row>
+    <row r="130" spans="1:11">
+      <c r="A130" s="1"/>
+      <c r="B130" s="19"/>
+      <c r="C130" s="2"/>
+      <c r="D130" s="20"/>
+      <c r="E130" s="19"/>
+      <c r="F130" s="19"/>
+      <c r="G130" s="19"/>
+      <c r="H130" s="19"/>
+      <c r="I130" s="19"/>
+      <c r="J130" s="19"/>
+      <c r="K130" s="19"/>
+    </row>
+    <row r="131" spans="1:11">
+      <c r="A131" s="1"/>
+      <c r="B131" s="19"/>
+      <c r="C131" s="2"/>
+      <c r="D131" s="20"/>
+      <c r="E131" s="19"/>
+      <c r="F131" s="19"/>
+      <c r="G131" s="19"/>
+      <c r="H131" s="19"/>
+      <c r="I131" s="19"/>
+      <c r="J131" s="19"/>
+      <c r="K131" s="19"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
   <phoneticPr fontId="8"/>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B129">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B131">
       <formula1>"0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H2:I129">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H4:I131">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty." sqref="G2:G129">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty." sqref="G4:G131">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use Program Change, set cell value empty." sqref="J2:J129">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use Program Change, set cell value empty." sqref="J4:J131">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If cell value is empty, MSB will be set 0._x000a__x000a_By my research, Maybe Cubase will not recognize MSB." sqref="K2:K129">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If cell value is empty, MSB will be set 0._x000a__x000a_By my research, Maybe Cubase will not recognize MSB." sqref="K4:K131">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
@@ -22753,7 +23111,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>D2:D129</xm:sqref>
+          <xm:sqref>D4:D131</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -22762,7 +23120,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>E2:E129</xm:sqref>
+          <xm:sqref>E4:E131</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" promptTitle="MIDI Note" prompt="Choose from Drop-down list or imput number directly(0-127)_x000a__x000a_If don’t use MIDI Note, set Cell value empty.">
           <x14:formula1>
@@ -22771,7 +23129,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>F2:F129</xm:sqref>
+          <xm:sqref>F4:F131</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -22781,12 +23139,12 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K129"/>
+  <dimension ref="A1:K131"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
@@ -22801,100 +23159,59 @@
     <col min="1026" max="16384" width="8.875" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:11" ht="30" customHeight="1">
+      <c r="A1" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1" s="24"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I3" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J3" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K3" s="17" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="19">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="19">
-        <v>1</v>
-      </c>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B3" s="19">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="19">
-        <v>1</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="G3" s="19">
-        <v>120</v>
-      </c>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>215</v>
+        <v>11</v>
       </c>
       <c r="B4" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>215</v>
+        <v>11</v>
       </c>
       <c r="D4" s="20" t="s">
         <v>12</v>
@@ -22902,38 +23219,62 @@
       <c r="E4" s="19">
         <v>1</v>
       </c>
-      <c r="F4" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="G4" s="19">
-        <v>120</v>
-      </c>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
       <c r="H4" s="19"/>
       <c r="I4" s="19"/>
       <c r="J4" s="19"/>
       <c r="K4" s="19"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="1"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
+      <c r="A5" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B5" s="19">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="19">
+        <v>1</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="19">
+        <v>120</v>
+      </c>
       <c r="H5" s="19"/>
       <c r="I5" s="19"/>
       <c r="J5" s="19"/>
       <c r="K5" s="19"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="1"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
+      <c r="A6" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B6" s="19">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="19">
+        <v>1</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="19">
+        <v>120</v>
+      </c>
       <c r="H6" s="19"/>
       <c r="I6" s="19"/>
       <c r="J6" s="19"/>
@@ -24538,26 +24879,55 @@
       <c r="J129" s="19"/>
       <c r="K129" s="19"/>
     </row>
+    <row r="130" spans="1:11">
+      <c r="A130" s="1"/>
+      <c r="B130" s="19"/>
+      <c r="C130" s="2"/>
+      <c r="D130" s="20"/>
+      <c r="E130" s="19"/>
+      <c r="F130" s="19"/>
+      <c r="G130" s="19"/>
+      <c r="H130" s="19"/>
+      <c r="I130" s="19"/>
+      <c r="J130" s="19"/>
+      <c r="K130" s="19"/>
+    </row>
+    <row r="131" spans="1:11">
+      <c r="A131" s="1"/>
+      <c r="B131" s="19"/>
+      <c r="C131" s="2"/>
+      <c r="D131" s="20"/>
+      <c r="E131" s="19"/>
+      <c r="F131" s="19"/>
+      <c r="G131" s="19"/>
+      <c r="H131" s="19"/>
+      <c r="I131" s="19"/>
+      <c r="J131" s="19"/>
+      <c r="K131" s="19"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
   <phoneticPr fontId="8"/>
   <dataValidations count="5">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If cell value is empty, MSB will be set 0._x000a__x000a_By my research, Maybe Cubase will not recognize MSB." sqref="K2:K129">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If cell value is empty, MSB will be set 0._x000a__x000a_By my research, Maybe Cubase will not recognize MSB." sqref="K4:K131">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use Program Change, set cell value empty." sqref="J2:J129">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use Program Change, set cell value empty." sqref="J4:J131">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty." sqref="G2:G129">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty." sqref="G4:G131">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H2:I129">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H4:I131">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B129">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B131">
       <formula1>"0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -24575,7 +24945,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>F2:F129</xm:sqref>
+          <xm:sqref>F4:F131</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -24584,7 +24954,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>E2:E129</xm:sqref>
+          <xm:sqref>E4:E131</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -24593,7 +24963,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>D2:D129</xm:sqref>
+          <xm:sqref>D4:D131</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -24603,12 +24973,12 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K129"/>
+  <dimension ref="A1:K131"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
@@ -24623,100 +24993,59 @@
     <col min="1026" max="16384" width="8.875" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:11" ht="30" customHeight="1">
+      <c r="A1" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>246</v>
+      </c>
+      <c r="C1" s="24"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I3" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J3" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K3" s="17" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="19">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="19">
-        <v>1</v>
-      </c>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B3" s="19">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="19">
-        <v>1</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="G3" s="19">
-        <v>120</v>
-      </c>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>153</v>
+        <v>11</v>
       </c>
       <c r="B4" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>153</v>
+        <v>11</v>
       </c>
       <c r="D4" s="20" t="s">
         <v>12</v>
@@ -24724,12 +25053,8 @@
       <c r="E4" s="19">
         <v>1</v>
       </c>
-      <c r="F4" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="G4" s="19">
-        <v>120</v>
-      </c>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
       <c r="H4" s="19"/>
       <c r="I4" s="19"/>
       <c r="J4" s="19"/>
@@ -24737,13 +25062,13 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B5" s="19">
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D5" s="20" t="s">
         <v>12</v>
@@ -24752,7 +25077,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G5" s="19">
         <v>120</v>
@@ -24764,13 +25089,13 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="B6" s="19">
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="D6" s="20" t="s">
         <v>12</v>
@@ -24779,7 +25104,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G6" s="19">
         <v>120</v>
@@ -24791,13 +25116,13 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="B7" s="19">
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="D7" s="20" t="s">
         <v>12</v>
@@ -24806,7 +25131,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G7" s="19">
         <v>120</v>
@@ -24818,13 +25143,13 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="B8" s="19">
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="D8" s="20" t="s">
         <v>12</v>
@@ -24833,7 +25158,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G8" s="19">
         <v>120</v>
@@ -24845,13 +25170,13 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="B9" s="19">
         <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="D9" s="20" t="s">
         <v>12</v>
@@ -24860,7 +25185,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G9" s="19">
         <v>120</v>
@@ -24872,13 +25197,13 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B10" s="19">
         <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D10" s="20" t="s">
         <v>12</v>
@@ -24887,7 +25212,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G10" s="19">
         <v>120</v>
@@ -24898,26 +25223,54 @@
       <c r="K10" s="19"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="1"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
+      <c r="A11" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B11" s="19">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="19">
+        <v>1</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="19">
+        <v>120</v>
+      </c>
       <c r="H11" s="19"/>
       <c r="I11" s="19"/>
       <c r="J11" s="19"/>
       <c r="K11" s="19"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="1"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
+      <c r="A12" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B12" s="19">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="19">
+        <v>1</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="19">
+        <v>120</v>
+      </c>
       <c r="H12" s="19"/>
       <c r="I12" s="19"/>
       <c r="J12" s="19"/>
@@ -26444,26 +26797,55 @@
       <c r="J129" s="19"/>
       <c r="K129" s="19"/>
     </row>
+    <row r="130" spans="1:11">
+      <c r="A130" s="1"/>
+      <c r="B130" s="19"/>
+      <c r="C130" s="2"/>
+      <c r="D130" s="20"/>
+      <c r="E130" s="19"/>
+      <c r="F130" s="19"/>
+      <c r="G130" s="19"/>
+      <c r="H130" s="19"/>
+      <c r="I130" s="19"/>
+      <c r="J130" s="19"/>
+      <c r="K130" s="19"/>
+    </row>
+    <row r="131" spans="1:11">
+      <c r="A131" s="1"/>
+      <c r="B131" s="19"/>
+      <c r="C131" s="2"/>
+      <c r="D131" s="20"/>
+      <c r="E131" s="19"/>
+      <c r="F131" s="19"/>
+      <c r="G131" s="19"/>
+      <c r="H131" s="19"/>
+      <c r="I131" s="19"/>
+      <c r="J131" s="19"/>
+      <c r="K131" s="19"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
   <phoneticPr fontId="8"/>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B129">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B131">
       <formula1>"0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H2:I129">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H4:I131">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty." sqref="G2:G129">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty." sqref="G4:G131">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use Program Change, set cell value empty." sqref="J2:J129">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use Program Change, set cell value empty." sqref="J4:J131">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If cell value is empty, MSB will be set 0._x000a__x000a_By my research, Maybe Cubase will not recognize MSB." sqref="K2:K129">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If cell value is empty, MSB will be set 0._x000a__x000a_By my research, Maybe Cubase will not recognize MSB." sqref="K4:K131">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
@@ -26481,7 +26863,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>D2:D129</xm:sqref>
+          <xm:sqref>D4:D131</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -26490,7 +26872,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>E2:E129</xm:sqref>
+          <xm:sqref>E4:E131</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" promptTitle="MIDI Note" prompt="Choose from Drop-down list or imput number directly(0-127)_x000a__x000a_If don’t use MIDI Note, set Cell value empty.">
           <x14:formula1>
@@ -26499,7 +26881,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>F2:F129</xm:sqref>
+          <xm:sqref>F4:F131</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Fujiya Instruments/Junk Guitar/Junk Guitar/xlsx/VHG.xlsx
+++ b/Fujiya Instruments/Junk Guitar/Junk Guitar/xlsx/VHG.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ADCEAFC-048B-4F4B-8F69-27E1D953B0EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2385" yWindow="3945" windowWidth="24825" windowHeight="15615" tabRatio="500"/>
+    <workbookView xWindow="1320" yWindow="1005" windowWidth="25365" windowHeight="14160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VHG Poly (Main)" sheetId="1" r:id="rId1"/>
@@ -26,12 +27,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作成者</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -46,7 +47,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B3" authorId="0">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -66,12 +67,12 @@
 </file>
 
 <file path=xl/comments10.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作成者</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0900-000001000000}">
       <text>
         <r>
           <rPr>
@@ -86,7 +87,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B3" authorId="0">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0900-000002000000}">
       <text>
         <r>
           <rPr>
@@ -106,12 +107,12 @@
 </file>
 
 <file path=xl/comments11.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作成者</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000001000000}">
       <text>
         <r>
           <rPr>
@@ -126,7 +127,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B3" authorId="0">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000002000000}">
       <text>
         <r>
           <rPr>
@@ -146,12 +147,12 @@
 </file>
 
 <file path=xl/comments12.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作成者</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000001000000}">
       <text>
         <r>
           <rPr>
@@ -166,7 +167,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B3" authorId="0">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000002000000}">
       <text>
         <r>
           <rPr>
@@ -186,12 +187,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作成者</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -206,7 +207,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B3" authorId="0">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -226,12 +227,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作成者</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -246,7 +247,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B3" authorId="0">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -266,12 +267,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作成者</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -286,7 +287,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B3" authorId="0">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -306,12 +307,12 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作成者</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -326,7 +327,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B3" authorId="0">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
       <text>
         <r>
           <rPr>
@@ -346,12 +347,12 @@
 </file>
 
 <file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作成者</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
       <text>
         <r>
           <rPr>
@@ -366,7 +367,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B3" authorId="0">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
       <text>
         <r>
           <rPr>
@@ -386,12 +387,12 @@
 </file>
 
 <file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作成者</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
       <text>
         <r>
           <rPr>
@@ -406,7 +407,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B3" authorId="0">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000002000000}">
       <text>
         <r>
           <rPr>
@@ -426,12 +427,12 @@
 </file>
 
 <file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作成者</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000001000000}">
       <text>
         <r>
           <rPr>
@@ -446,7 +447,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B3" authorId="0">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000002000000}">
       <text>
         <r>
           <rPr>
@@ -466,12 +467,12 @@
 </file>
 
 <file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作成者</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000001000000}">
       <text>
         <r>
           <rPr>
@@ -486,7 +487,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B3" authorId="0">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000002000000}">
       <text>
         <r>
           <rPr>
@@ -506,7 +507,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="251">
   <si>
     <t>Name</t>
   </si>
@@ -1257,11 +1258,15 @@
   <si>
     <t>VHG Riff (Stop)</t>
   </si>
+  <si>
+    <t>Stop</t>
+    <phoneticPr fontId="7"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="10">
     <font>
       <sz val="11"/>
@@ -1451,7 +1456,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1530,11 +1535,14 @@
     <xf numFmtId="49" fontId="3" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="説明文" xfId="1" builtinId="53" customBuiltin="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="2"/>
+    <cellStyle name="標準 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -1610,6 +1618,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1626,12 +1637,18 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1026" name="shapetype_202" hidden="1"/>
+        <xdr:cNvPr id="1026" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1925,15 +1942,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K131"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K132"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
@@ -1957,10 +1974,10 @@
       <c r="A1" s="25" t="s">
         <v>237</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="26" t="s">
         <v>238</v>
       </c>
-      <c r="C1" s="24"/>
+      <c r="C1" s="26"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="12" t="s">
@@ -2022,25 +2039,25 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>143</v>
+        <v>250</v>
       </c>
       <c r="B5" s="19">
         <v>1</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D5" s="20" t="s">
+      <c r="C5" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D5" s="24" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="19">
         <v>1</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="G5" s="19">
-        <v>120</v>
+        <v>15</v>
       </c>
       <c r="H5" s="19"/>
       <c r="I5" s="19"/>
@@ -2049,13 +2066,13 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B6" s="19">
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D6" s="20" t="s">
         <v>12</v>
@@ -2064,7 +2081,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G6" s="19">
         <v>120</v>
@@ -2076,13 +2093,13 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B7" s="19">
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D7" s="20" t="s">
         <v>12</v>
@@ -2091,7 +2108,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G7" s="19">
         <v>120</v>
@@ -2103,13 +2120,13 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B8" s="19">
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D8" s="20" t="s">
         <v>12</v>
@@ -2118,7 +2135,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G8" s="19">
         <v>120</v>
@@ -2130,13 +2147,13 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B9" s="19">
         <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D9" s="20" t="s">
         <v>12</v>
@@ -2145,7 +2162,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G9" s="19">
         <v>120</v>
@@ -2157,13 +2174,13 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B10" s="19">
         <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D10" s="20" t="s">
         <v>12</v>
@@ -2172,7 +2189,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G10" s="19">
         <v>120</v>
@@ -2184,13 +2201,13 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B11" s="19">
         <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D11" s="20" t="s">
         <v>12</v>
@@ -2199,7 +2216,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G11" s="19">
         <v>120</v>
@@ -2211,13 +2228,13 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B12" s="19">
         <v>1</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D12" s="20" t="s">
         <v>12</v>
@@ -2226,7 +2243,7 @@
         <v>1</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G12" s="19">
         <v>120</v>
@@ -2238,13 +2255,13 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B13" s="19">
         <v>1</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D13" s="20" t="s">
         <v>12</v>
@@ -2253,7 +2270,7 @@
         <v>1</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G13" s="19">
         <v>120</v>
@@ -2265,13 +2282,13 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B14" s="19">
         <v>1</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D14" s="20" t="s">
         <v>12</v>
@@ -2280,7 +2297,7 @@
         <v>1</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G14" s="19">
         <v>120</v>
@@ -2292,13 +2309,13 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B15" s="19">
         <v>1</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D15" s="20" t="s">
         <v>12</v>
@@ -2307,7 +2324,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G15" s="19">
         <v>120</v>
@@ -2319,13 +2336,13 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B16" s="19">
         <v>1</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D16" s="20" t="s">
         <v>12</v>
@@ -2334,7 +2351,7 @@
         <v>1</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G16" s="19">
         <v>120</v>
@@ -2346,13 +2363,13 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B17" s="19">
         <v>1</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D17" s="20" t="s">
         <v>12</v>
@@ -2361,7 +2378,7 @@
         <v>1</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G17" s="19">
         <v>120</v>
@@ -2373,13 +2390,13 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B18" s="19">
         <v>1</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D18" s="20" t="s">
         <v>12</v>
@@ -2388,7 +2405,7 @@
         <v>1</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G18" s="19">
         <v>120</v>
@@ -2400,13 +2417,13 @@
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B19" s="19">
         <v>1</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D19" s="20" t="s">
         <v>12</v>
@@ -2415,7 +2432,7 @@
         <v>1</v>
       </c>
       <c r="F19" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G19" s="19">
         <v>120</v>
@@ -2427,13 +2444,13 @@
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B20" s="19">
         <v>1</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D20" s="20" t="s">
         <v>12</v>
@@ -2442,7 +2459,7 @@
         <v>1</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G20" s="19">
         <v>120</v>
@@ -2453,13 +2470,27 @@
       <c r="K20" s="19"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="1"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
+      <c r="A21" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B21" s="19">
+        <v>1</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="19">
+        <v>1</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="G21" s="19">
+        <v>120</v>
+      </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
       <c r="J21" s="19"/>
@@ -3895,66 +3926,79 @@
       <c r="J131" s="19"/>
       <c r="K131" s="19"/>
     </row>
+    <row r="132" spans="1:11">
+      <c r="A132" s="1"/>
+      <c r="B132" s="19"/>
+      <c r="C132" s="2"/>
+      <c r="D132" s="20"/>
+      <c r="E132" s="19"/>
+      <c r="F132" s="19"/>
+      <c r="G132" s="19"/>
+      <c r="H132" s="19"/>
+      <c r="I132" s="19"/>
+      <c r="J132" s="19"/>
+      <c r="K132" s="19"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:C1"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B131">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B132" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H4:I131">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H4:I132" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty." sqref="G4:G131">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty." sqref="G4:G132" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use Program Change, set cell value empty." sqref="J4:J131">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use Program Change, set cell value empty." sqref="J4:J132" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If cell value is empty, MSB will be set 0._x000a__x000a_By my research, Maybe Cubase will not recognize MSB." sqref="K4:K131">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If cell value is empty, MSB will be set 0._x000a__x000a_By my research, Maybe Cubase will not recognize MSB." sqref="K4:K132" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000005000000}">
           <x14:formula1>
             <xm:f>'DO NOT MODIFY!'!$B$2:$B$4</xm:f>
           </x14:formula1>
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>D4:D131</xm:sqref>
+          <xm:sqref>D4:D132</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000006000000}">
           <x14:formula1>
             <xm:f>'DO NOT MODIFY!'!$C$2:$C$6</xm:f>
           </x14:formula1>
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>E4:E131</xm:sqref>
+          <xm:sqref>E4:E132</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" promptTitle="MIDI Note" prompt="Choose from Drop-down list or imput number directly(0-127)_x000a__x000a_If don’t use MIDI Note, set Cell value empty.">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" promptTitle="MIDI Note" prompt="Choose from Drop-down list or imput number directly(0-127)_x000a__x000a_If don’t use MIDI Note, set Cell value empty." xr:uid="{00000000-0002-0000-0000-000007000000}">
           <x14:formula1>
             <xm:f>'DO NOT MODIFY!'!$A$2:$A$258</xm:f>
           </x14:formula1>
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>F4:F131</xm:sqref>
+          <xm:sqref>F4:F132</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3963,7 +4007,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:K131"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -3988,10 +4032,10 @@
       <c r="A1" s="25" t="s">
         <v>237</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="26" t="s">
         <v>247</v>
       </c>
-      <c r="C1" s="24"/>
+      <c r="C1" s="26"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="12" t="s">
@@ -5890,23 +5934,23 @@
   </mergeCells>
   <phoneticPr fontId="8"/>
   <dataValidations count="5">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If cell value is empty, MSB will be set 0._x000a__x000a_By my research, Maybe Cubase will not recognize MSB." sqref="K4:K131">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If cell value is empty, MSB will be set 0._x000a__x000a_By my research, Maybe Cubase will not recognize MSB." sqref="K4:K131" xr:uid="{00000000-0002-0000-0900-000000000000}">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use Program Change, set cell value empty." sqref="J4:J131">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use Program Change, set cell value empty." sqref="J4:J131" xr:uid="{00000000-0002-0000-0900-000001000000}">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty." sqref="G4:G131">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty." sqref="G4:G131" xr:uid="{00000000-0002-0000-0900-000002000000}">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H4:I131">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H4:I131" xr:uid="{00000000-0002-0000-0900-000003000000}">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B131">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B131" xr:uid="{00000000-0002-0000-0900-000004000000}">
       <formula1>"0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -5917,7 +5961,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" promptTitle="MIDI Note" prompt="Choose from Drop-down list or imput number directly(0-127)_x000a__x000a_If don’t use MIDI Note, set Cell value empty.">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" promptTitle="MIDI Note" prompt="Choose from Drop-down list or imput number directly(0-127)_x000a__x000a_If don’t use MIDI Note, set Cell value empty." xr:uid="{00000000-0002-0000-0900-000005000000}">
           <x14:formula1>
             <xm:f>'DO NOT MODIFY!'!$A$2:$A$258</xm:f>
           </x14:formula1>
@@ -5926,7 +5970,7 @@
           </x14:formula2>
           <xm:sqref>F4:F131</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0900-000006000000}">
           <x14:formula1>
             <xm:f>'DO NOT MODIFY!'!$C$2:$C$6</xm:f>
           </x14:formula1>
@@ -5935,7 +5979,7 @@
           </x14:formula2>
           <xm:sqref>E4:E131</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0900-000007000000}">
           <x14:formula1>
             <xm:f>'DO NOT MODIFY!'!$B$2:$B$4</xm:f>
           </x14:formula1>
@@ -5951,7 +5995,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:K131"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -5976,10 +6020,10 @@
       <c r="A1" s="25" t="s">
         <v>237</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="26" t="s">
         <v>248</v>
       </c>
-      <c r="C1" s="24"/>
+      <c r="C1" s="26"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="12" t="s">
@@ -7738,23 +7782,23 @@
   </mergeCells>
   <phoneticPr fontId="8"/>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B131">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B131" xr:uid="{00000000-0002-0000-0A00-000000000000}">
       <formula1>"0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H4:I131">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H4:I131" xr:uid="{00000000-0002-0000-0A00-000001000000}">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty." sqref="G4:G131">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty." sqref="G4:G131" xr:uid="{00000000-0002-0000-0A00-000002000000}">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use Program Change, set cell value empty." sqref="J4:J131">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use Program Change, set cell value empty." sqref="J4:J131" xr:uid="{00000000-0002-0000-0A00-000003000000}">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If cell value is empty, MSB will be set 0._x000a__x000a_By my research, Maybe Cubase will not recognize MSB." sqref="K4:K131">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If cell value is empty, MSB will be set 0._x000a__x000a_By my research, Maybe Cubase will not recognize MSB." sqref="K4:K131" xr:uid="{00000000-0002-0000-0A00-000004000000}">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
@@ -7765,7 +7809,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0A00-000005000000}">
           <x14:formula1>
             <xm:f>'DO NOT MODIFY!'!$B$2:$B$4</xm:f>
           </x14:formula1>
@@ -7774,7 +7818,7 @@
           </x14:formula2>
           <xm:sqref>D4:D131</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0A00-000006000000}">
           <x14:formula1>
             <xm:f>'DO NOT MODIFY!'!$C$2:$C$6</xm:f>
           </x14:formula1>
@@ -7783,7 +7827,7 @@
           </x14:formula2>
           <xm:sqref>E4:E131</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" promptTitle="MIDI Note" prompt="Choose from Drop-down list or imput number directly(0-127)_x000a__x000a_If don’t use MIDI Note, set Cell value empty.">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" promptTitle="MIDI Note" prompt="Choose from Drop-down list or imput number directly(0-127)_x000a__x000a_If don’t use MIDI Note, set Cell value empty." xr:uid="{00000000-0002-0000-0A00-000007000000}">
           <x14:formula1>
             <xm:f>'DO NOT MODIFY!'!$A$2:$A$258</xm:f>
           </x14:formula1>
@@ -7799,7 +7843,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:K131"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -7824,10 +7868,10 @@
       <c r="A1" s="25" t="s">
         <v>237</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="26" t="s">
         <v>249</v>
       </c>
-      <c r="C1" s="24"/>
+      <c r="C1" s="26"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="12" t="s">
@@ -9768,23 +9812,23 @@
   </mergeCells>
   <phoneticPr fontId="8"/>
   <dataValidations count="5">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If cell value is empty, MSB will be set 0._x000a__x000a_By my research, Maybe Cubase will not recognize MSB." sqref="K4:K131">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If cell value is empty, MSB will be set 0._x000a__x000a_By my research, Maybe Cubase will not recognize MSB." sqref="K4:K131" xr:uid="{00000000-0002-0000-0B00-000000000000}">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use Program Change, set cell value empty." sqref="J4:J131">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use Program Change, set cell value empty." sqref="J4:J131" xr:uid="{00000000-0002-0000-0B00-000001000000}">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty." sqref="G4:G131">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty." sqref="G4:G131" xr:uid="{00000000-0002-0000-0B00-000002000000}">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H4:I131">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H4:I131" xr:uid="{00000000-0002-0000-0B00-000003000000}">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B131">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B131" xr:uid="{00000000-0002-0000-0B00-000004000000}">
       <formula1>"0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -9795,7 +9839,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" promptTitle="MIDI Note" prompt="Choose from Drop-down list or imput number directly(0-127)_x000a__x000a_If don’t use MIDI Note, set Cell value empty.">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" promptTitle="MIDI Note" prompt="Choose from Drop-down list or imput number directly(0-127)_x000a__x000a_If don’t use MIDI Note, set Cell value empty." xr:uid="{00000000-0002-0000-0B00-000005000000}">
           <x14:formula1>
             <xm:f>'DO NOT MODIFY!'!$A$2:$A$258</xm:f>
           </x14:formula1>
@@ -9804,7 +9848,7 @@
           </x14:formula2>
           <xm:sqref>F4:F131</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0B00-000006000000}">
           <x14:formula1>
             <xm:f>'DO NOT MODIFY!'!$C$2:$C$6</xm:f>
           </x14:formula1>
@@ -9813,7 +9857,7 @@
           </x14:formula2>
           <xm:sqref>E4:E131</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0B00-000007000000}">
           <x14:formula1>
             <xm:f>'DO NOT MODIFY!'!$B$2:$B$4</xm:f>
           </x14:formula1>
@@ -9829,8 +9873,8 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <sheetPr>
     <tabColor rgb="FF000000"/>
   </sheetPr>
   <dimension ref="A1:C258"/>
@@ -11292,7 +11336,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K131"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -11317,10 +11361,10 @@
       <c r="A1" s="25" t="s">
         <v>237</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="26" t="s">
         <v>239</v>
       </c>
-      <c r="C1" s="24"/>
+      <c r="C1" s="26"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="12" t="s">
@@ -13109,23 +13153,23 @@
   </mergeCells>
   <phoneticPr fontId="8"/>
   <dataValidations count="5">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If cell value is empty, MSB will be set 0._x000a__x000a_By my research, Maybe Cubase will not recognize MSB." sqref="K4:K131">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If cell value is empty, MSB will be set 0._x000a__x000a_By my research, Maybe Cubase will not recognize MSB." sqref="K4:K131" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use Program Change, set cell value empty." sqref="J4:J131">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use Program Change, set cell value empty." sqref="J4:J131" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty." sqref="G4:G131">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty." sqref="G4:G131" xr:uid="{00000000-0002-0000-0100-000002000000}">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H4:I131">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H4:I131" xr:uid="{00000000-0002-0000-0100-000003000000}">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B131">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B131" xr:uid="{00000000-0002-0000-0100-000004000000}">
       <formula1>"0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -13136,7 +13180,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" promptTitle="MIDI Note" prompt="Choose from Drop-down list or imput number directly(0-127)_x000a__x000a_If don’t use MIDI Note, set Cell value empty.">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" promptTitle="MIDI Note" prompt="Choose from Drop-down list or imput number directly(0-127)_x000a__x000a_If don’t use MIDI Note, set Cell value empty." xr:uid="{00000000-0002-0000-0100-000005000000}">
           <x14:formula1>
             <xm:f>'DO NOT MODIFY!'!$A$2:$A$258</xm:f>
           </x14:formula1>
@@ -13145,7 +13189,7 @@
           </x14:formula2>
           <xm:sqref>F4:F131</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000006000000}">
           <x14:formula1>
             <xm:f>'DO NOT MODIFY!'!$C$2:$C$6</xm:f>
           </x14:formula1>
@@ -13154,7 +13198,7 @@
           </x14:formula2>
           <xm:sqref>E4:E131</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000007000000}">
           <x14:formula1>
             <xm:f>'DO NOT MODIFY!'!$B$2:$B$4</xm:f>
           </x14:formula1>
@@ -13170,7 +13214,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K131"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -13195,10 +13239,10 @@
       <c r="A1" s="25" t="s">
         <v>237</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="26" t="s">
         <v>240</v>
       </c>
-      <c r="C1" s="24"/>
+      <c r="C1" s="26"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="12" t="s">
@@ -15195,23 +15239,23 @@
   </mergeCells>
   <phoneticPr fontId="8"/>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B131">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B131" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H4:I131">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H4:I131" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty." sqref="G4:G131">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty." sqref="G4:G131" xr:uid="{00000000-0002-0000-0200-000002000000}">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use Program Change, set cell value empty." sqref="J4:J131">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use Program Change, set cell value empty." sqref="J4:J131" xr:uid="{00000000-0002-0000-0200-000003000000}">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If cell value is empty, MSB will be set 0._x000a__x000a_By my research, Maybe Cubase will not recognize MSB." sqref="K4:K131">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If cell value is empty, MSB will be set 0._x000a__x000a_By my research, Maybe Cubase will not recognize MSB." sqref="K4:K131" xr:uid="{00000000-0002-0000-0200-000004000000}">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
@@ -15222,7 +15266,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000005000000}">
           <x14:formula1>
             <xm:f>'DO NOT MODIFY!'!$B$2:$B$4</xm:f>
           </x14:formula1>
@@ -15231,7 +15275,7 @@
           </x14:formula2>
           <xm:sqref>D4:D131</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000006000000}">
           <x14:formula1>
             <xm:f>'DO NOT MODIFY!'!$C$2:$C$6</xm:f>
           </x14:formula1>
@@ -15240,7 +15284,7 @@
           </x14:formula2>
           <xm:sqref>E4:E131</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" promptTitle="MIDI Note" prompt="Choose from Drop-down list or imput number directly(0-127)_x000a__x000a_If don’t use MIDI Note, set Cell value empty.">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" promptTitle="MIDI Note" prompt="Choose from Drop-down list or imput number directly(0-127)_x000a__x000a_If don’t use MIDI Note, set Cell value empty." xr:uid="{00000000-0002-0000-0200-000007000000}">
           <x14:formula1>
             <xm:f>'DO NOT MODIFY!'!$A$2:$A$258</xm:f>
           </x14:formula1>
@@ -15256,7 +15300,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K131"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -15281,10 +15325,10 @@
       <c r="A1" s="25" t="s">
         <v>237</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="26" t="s">
         <v>241</v>
       </c>
-      <c r="C1" s="24"/>
+      <c r="C1" s="26"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="12" t="s">
@@ -17043,23 +17087,23 @@
   </mergeCells>
   <phoneticPr fontId="8"/>
   <dataValidations count="5">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If cell value is empty, MSB will be set 0._x000a__x000a_By my research, Maybe Cubase will not recognize MSB." sqref="K4:K131">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If cell value is empty, MSB will be set 0._x000a__x000a_By my research, Maybe Cubase will not recognize MSB." sqref="K4:K131" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use Program Change, set cell value empty." sqref="J4:J131">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use Program Change, set cell value empty." sqref="J4:J131" xr:uid="{00000000-0002-0000-0300-000001000000}">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty." sqref="G4:G131">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty." sqref="G4:G131" xr:uid="{00000000-0002-0000-0300-000002000000}">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H4:I131">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H4:I131" xr:uid="{00000000-0002-0000-0300-000003000000}">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B131">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B131" xr:uid="{00000000-0002-0000-0300-000004000000}">
       <formula1>"0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -17070,7 +17114,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" promptTitle="MIDI Note" prompt="Choose from Drop-down list or imput number directly(0-127)_x000a__x000a_If don’t use MIDI Note, set Cell value empty.">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" promptTitle="MIDI Note" prompt="Choose from Drop-down list or imput number directly(0-127)_x000a__x000a_If don’t use MIDI Note, set Cell value empty." xr:uid="{00000000-0002-0000-0300-000005000000}">
           <x14:formula1>
             <xm:f>'DO NOT MODIFY!'!$A$2:$A$258</xm:f>
           </x14:formula1>
@@ -17079,7 +17123,7 @@
           </x14:formula2>
           <xm:sqref>F4:F131</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000006000000}">
           <x14:formula1>
             <xm:f>'DO NOT MODIFY!'!$C$2:$C$6</xm:f>
           </x14:formula1>
@@ -17088,7 +17132,7 @@
           </x14:formula2>
           <xm:sqref>E4:E131</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000007000000}">
           <x14:formula1>
             <xm:f>'DO NOT MODIFY!'!$B$2:$B$4</xm:f>
           </x14:formula1>
@@ -17104,7 +17148,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K131"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -17129,10 +17173,10 @@
       <c r="A1" s="25" t="s">
         <v>237</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="26" t="s">
         <v>242</v>
       </c>
-      <c r="C1" s="24"/>
+      <c r="C1" s="26"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="12" t="s">
@@ -19073,23 +19117,23 @@
   </mergeCells>
   <phoneticPr fontId="8"/>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B131">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B131" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>"0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H4:I131">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H4:I131" xr:uid="{00000000-0002-0000-0400-000001000000}">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty." sqref="G4:G131">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty." sqref="G4:G131" xr:uid="{00000000-0002-0000-0400-000002000000}">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use Program Change, set cell value empty." sqref="J4:J131">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use Program Change, set cell value empty." sqref="J4:J131" xr:uid="{00000000-0002-0000-0400-000003000000}">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If cell value is empty, MSB will be set 0._x000a__x000a_By my research, Maybe Cubase will not recognize MSB." sqref="K4:K131">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If cell value is empty, MSB will be set 0._x000a__x000a_By my research, Maybe Cubase will not recognize MSB." sqref="K4:K131" xr:uid="{00000000-0002-0000-0400-000004000000}">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
@@ -19100,7 +19144,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000005000000}">
           <x14:formula1>
             <xm:f>'DO NOT MODIFY!'!$B$2:$B$4</xm:f>
           </x14:formula1>
@@ -19109,7 +19153,7 @@
           </x14:formula2>
           <xm:sqref>D4:D131</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000006000000}">
           <x14:formula1>
             <xm:f>'DO NOT MODIFY!'!$C$2:$C$6</xm:f>
           </x14:formula1>
@@ -19118,7 +19162,7 @@
           </x14:formula2>
           <xm:sqref>E4:E131</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" promptTitle="MIDI Note" prompt="Choose from Drop-down list or imput number directly(0-127)_x000a__x000a_If don’t use MIDI Note, set Cell value empty.">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" promptTitle="MIDI Note" prompt="Choose from Drop-down list or imput number directly(0-127)_x000a__x000a_If don’t use MIDI Note, set Cell value empty." xr:uid="{00000000-0002-0000-0400-000007000000}">
           <x14:formula1>
             <xm:f>'DO NOT MODIFY!'!$A$2:$A$258</xm:f>
           </x14:formula1>
@@ -19134,7 +19178,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:K131"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -19159,10 +19203,10 @@
       <c r="A1" s="25" t="s">
         <v>237</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="26" t="s">
         <v>243</v>
       </c>
-      <c r="C1" s="24"/>
+      <c r="C1" s="26"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="12" t="s">
@@ -21215,23 +21259,23 @@
   </mergeCells>
   <phoneticPr fontId="8"/>
   <dataValidations count="5">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If cell value is empty, MSB will be set 0._x000a__x000a_By my research, Maybe Cubase will not recognize MSB." sqref="K4:K131">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If cell value is empty, MSB will be set 0._x000a__x000a_By my research, Maybe Cubase will not recognize MSB." sqref="K4:K131" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use Program Change, set cell value empty." sqref="J4:J131">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use Program Change, set cell value empty." sqref="J4:J131" xr:uid="{00000000-0002-0000-0500-000001000000}">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty." sqref="G4:G131">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty." sqref="G4:G131" xr:uid="{00000000-0002-0000-0500-000002000000}">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H4:I131">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H4:I131" xr:uid="{00000000-0002-0000-0500-000003000000}">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B131">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B131" xr:uid="{00000000-0002-0000-0500-000004000000}">
       <formula1>"0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -21242,7 +21286,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" promptTitle="MIDI Note" prompt="Choose from Drop-down list or imput number directly(0-127)_x000a__x000a_If don’t use MIDI Note, set Cell value empty.">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" promptTitle="MIDI Note" prompt="Choose from Drop-down list or imput number directly(0-127)_x000a__x000a_If don’t use MIDI Note, set Cell value empty." xr:uid="{00000000-0002-0000-0500-000005000000}">
           <x14:formula1>
             <xm:f>'DO NOT MODIFY!'!$A$2:$A$258</xm:f>
           </x14:formula1>
@@ -21251,7 +21295,7 @@
           </x14:formula2>
           <xm:sqref>F4:F131</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0500-000006000000}">
           <x14:formula1>
             <xm:f>'DO NOT MODIFY!'!$C$2:$C$6</xm:f>
           </x14:formula1>
@@ -21260,7 +21304,7 @@
           </x14:formula2>
           <xm:sqref>E4:E131</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0500-000007000000}">
           <x14:formula1>
             <xm:f>'DO NOT MODIFY!'!$B$2:$B$4</xm:f>
           </x14:formula1>
@@ -21276,7 +21320,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:K131"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -21301,10 +21345,10 @@
       <c r="A1" s="25" t="s">
         <v>237</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="26" t="s">
         <v>244</v>
       </c>
-      <c r="C1" s="24"/>
+      <c r="C1" s="26"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="12" t="s">
@@ -23077,23 +23121,23 @@
   </mergeCells>
   <phoneticPr fontId="8"/>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B131">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B131" xr:uid="{00000000-0002-0000-0600-000000000000}">
       <formula1>"0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H4:I131">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H4:I131" xr:uid="{00000000-0002-0000-0600-000001000000}">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty." sqref="G4:G131">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty." sqref="G4:G131" xr:uid="{00000000-0002-0000-0600-000002000000}">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use Program Change, set cell value empty." sqref="J4:J131">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use Program Change, set cell value empty." sqref="J4:J131" xr:uid="{00000000-0002-0000-0600-000003000000}">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If cell value is empty, MSB will be set 0._x000a__x000a_By my research, Maybe Cubase will not recognize MSB." sqref="K4:K131">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If cell value is empty, MSB will be set 0._x000a__x000a_By my research, Maybe Cubase will not recognize MSB." sqref="K4:K131" xr:uid="{00000000-0002-0000-0600-000004000000}">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
@@ -23104,7 +23148,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0600-000005000000}">
           <x14:formula1>
             <xm:f>'DO NOT MODIFY!'!$B$2:$B$4</xm:f>
           </x14:formula1>
@@ -23113,7 +23157,7 @@
           </x14:formula2>
           <xm:sqref>D4:D131</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0600-000006000000}">
           <x14:formula1>
             <xm:f>'DO NOT MODIFY!'!$C$2:$C$6</xm:f>
           </x14:formula1>
@@ -23122,7 +23166,7 @@
           </x14:formula2>
           <xm:sqref>E4:E131</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" promptTitle="MIDI Note" prompt="Choose from Drop-down list or imput number directly(0-127)_x000a__x000a_If don’t use MIDI Note, set Cell value empty.">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" promptTitle="MIDI Note" prompt="Choose from Drop-down list or imput number directly(0-127)_x000a__x000a_If don’t use MIDI Note, set Cell value empty." xr:uid="{00000000-0002-0000-0600-000007000000}">
           <x14:formula1>
             <xm:f>'DO NOT MODIFY!'!$A$2:$A$258</xm:f>
           </x14:formula1>
@@ -23138,7 +23182,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:K131"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -23163,10 +23207,10 @@
       <c r="A1" s="25" t="s">
         <v>237</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="26" t="s">
         <v>245</v>
       </c>
-      <c r="C1" s="24"/>
+      <c r="C1" s="26"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="12" t="s">
@@ -24911,23 +24955,23 @@
   </mergeCells>
   <phoneticPr fontId="8"/>
   <dataValidations count="5">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If cell value is empty, MSB will be set 0._x000a__x000a_By my research, Maybe Cubase will not recognize MSB." sqref="K4:K131">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If cell value is empty, MSB will be set 0._x000a__x000a_By my research, Maybe Cubase will not recognize MSB." sqref="K4:K131" xr:uid="{00000000-0002-0000-0700-000000000000}">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use Program Change, set cell value empty." sqref="J4:J131">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use Program Change, set cell value empty." sqref="J4:J131" xr:uid="{00000000-0002-0000-0700-000001000000}">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty." sqref="G4:G131">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty." sqref="G4:G131" xr:uid="{00000000-0002-0000-0700-000002000000}">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H4:I131">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H4:I131" xr:uid="{00000000-0002-0000-0700-000003000000}">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B131">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B131" xr:uid="{00000000-0002-0000-0700-000004000000}">
       <formula1>"0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -24938,7 +24982,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" promptTitle="MIDI Note" prompt="Choose from Drop-down list or imput number directly(0-127)_x000a__x000a_If don’t use MIDI Note, set Cell value empty.">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" promptTitle="MIDI Note" prompt="Choose from Drop-down list or imput number directly(0-127)_x000a__x000a_If don’t use MIDI Note, set Cell value empty." xr:uid="{00000000-0002-0000-0700-000005000000}">
           <x14:formula1>
             <xm:f>'DO NOT MODIFY!'!$A$2:$A$258</xm:f>
           </x14:formula1>
@@ -24947,7 +24991,7 @@
           </x14:formula2>
           <xm:sqref>F4:F131</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0700-000006000000}">
           <x14:formula1>
             <xm:f>'DO NOT MODIFY!'!$C$2:$C$6</xm:f>
           </x14:formula1>
@@ -24956,7 +25000,7 @@
           </x14:formula2>
           <xm:sqref>E4:E131</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0700-000007000000}">
           <x14:formula1>
             <xm:f>'DO NOT MODIFY!'!$B$2:$B$4</xm:f>
           </x14:formula1>
@@ -24972,7 +25016,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:K131"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -24997,10 +25041,10 @@
       <c r="A1" s="25" t="s">
         <v>237</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="26" t="s">
         <v>246</v>
       </c>
-      <c r="C1" s="24"/>
+      <c r="C1" s="26"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="12" t="s">
@@ -26829,23 +26873,23 @@
   </mergeCells>
   <phoneticPr fontId="8"/>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B131">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B131" xr:uid="{00000000-0002-0000-0800-000000000000}">
       <formula1>"0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H4:I131">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H4:I131" xr:uid="{00000000-0002-0000-0800-000001000000}">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty." sqref="G4:G131">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty." sqref="G4:G131" xr:uid="{00000000-0002-0000-0800-000002000000}">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use Program Change, set cell value empty." sqref="J4:J131">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use Program Change, set cell value empty." sqref="J4:J131" xr:uid="{00000000-0002-0000-0800-000003000000}">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If cell value is empty, MSB will be set 0._x000a__x000a_By my research, Maybe Cubase will not recognize MSB." sqref="K4:K131">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If cell value is empty, MSB will be set 0._x000a__x000a_By my research, Maybe Cubase will not recognize MSB." sqref="K4:K131" xr:uid="{00000000-0002-0000-0800-000004000000}">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
@@ -26856,7 +26900,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0800-000005000000}">
           <x14:formula1>
             <xm:f>'DO NOT MODIFY!'!$B$2:$B$4</xm:f>
           </x14:formula1>
@@ -26865,7 +26909,7 @@
           </x14:formula2>
           <xm:sqref>D4:D131</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0800-000006000000}">
           <x14:formula1>
             <xm:f>'DO NOT MODIFY!'!$C$2:$C$6</xm:f>
           </x14:formula1>
@@ -26874,7 +26918,7 @@
           </x14:formula2>
           <xm:sqref>E4:E131</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" promptTitle="MIDI Note" prompt="Choose from Drop-down list or imput number directly(0-127)_x000a__x000a_If don’t use MIDI Note, set Cell value empty.">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" promptTitle="MIDI Note" prompt="Choose from Drop-down list or imput number directly(0-127)_x000a__x000a_If don’t use MIDI Note, set Cell value empty." xr:uid="{00000000-0002-0000-0800-000007000000}">
           <x14:formula1>
             <xm:f>'DO NOT MODIFY!'!$A$2:$A$258</xm:f>
           </x14:formula1>

--- a/Fujiya Instruments/Junk Guitar/Junk Guitar/xlsx/VHG.xlsx
+++ b/Fujiya Instruments/Junk Guitar/Junk Guitar/xlsx/VHG.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ADCEAFC-048B-4F4B-8F69-27E1D953B0EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E173163-4FD6-4AFD-84AB-F295EE9CE687}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="1005" windowWidth="25365" windowHeight="14160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1110" yWindow="1140" windowWidth="25365" windowHeight="14160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VHG Poly (Main)" sheetId="1" r:id="rId1"/>
@@ -1529,10 +1529,10 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1637,7 +1637,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1950,7 +1950,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K132"/>
+  <dimension ref="A1:K131"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
@@ -1971,7 +1971,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" customHeight="1">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="24" t="s">
         <v>237</v>
       </c>
       <c r="B1" s="26" t="s">
@@ -2039,25 +2039,25 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>250</v>
+        <v>143</v>
       </c>
       <c r="B5" s="19">
         <v>1</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="D5" s="24" t="s">
+      <c r="C5" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D5" s="20" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="19">
         <v>1</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="G5" s="19">
-        <v>15</v>
+        <v>120</v>
       </c>
       <c r="H5" s="19"/>
       <c r="I5" s="19"/>
@@ -2066,13 +2066,13 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B6" s="19">
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D6" s="20" t="s">
         <v>12</v>
@@ -2081,7 +2081,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G6" s="19">
         <v>120</v>
@@ -2093,13 +2093,13 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B7" s="19">
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D7" s="20" t="s">
         <v>12</v>
@@ -2108,7 +2108,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G7" s="19">
         <v>120</v>
@@ -2120,13 +2120,13 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B8" s="19">
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D8" s="20" t="s">
         <v>12</v>
@@ -2135,7 +2135,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G8" s="19">
         <v>120</v>
@@ -2147,13 +2147,13 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B9" s="19">
         <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D9" s="20" t="s">
         <v>12</v>
@@ -2162,7 +2162,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G9" s="19">
         <v>120</v>
@@ -2174,13 +2174,13 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B10" s="19">
         <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D10" s="20" t="s">
         <v>12</v>
@@ -2189,7 +2189,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G10" s="19">
         <v>120</v>
@@ -2201,13 +2201,13 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B11" s="19">
         <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D11" s="20" t="s">
         <v>12</v>
@@ -2216,7 +2216,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G11" s="19">
         <v>120</v>
@@ -2228,13 +2228,13 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B12" s="19">
         <v>1</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D12" s="20" t="s">
         <v>12</v>
@@ -2243,7 +2243,7 @@
         <v>1</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G12" s="19">
         <v>120</v>
@@ -2255,13 +2255,13 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B13" s="19">
         <v>1</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D13" s="20" t="s">
         <v>12</v>
@@ -2270,7 +2270,7 @@
         <v>1</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G13" s="19">
         <v>120</v>
@@ -2282,13 +2282,13 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B14" s="19">
         <v>1</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D14" s="20" t="s">
         <v>12</v>
@@ -2297,7 +2297,7 @@
         <v>1</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G14" s="19">
         <v>120</v>
@@ -2309,13 +2309,13 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B15" s="19">
         <v>1</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D15" s="20" t="s">
         <v>12</v>
@@ -2324,7 +2324,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G15" s="19">
         <v>120</v>
@@ -2336,13 +2336,13 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B16" s="19">
         <v>1</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D16" s="20" t="s">
         <v>12</v>
@@ -2351,7 +2351,7 @@
         <v>1</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G16" s="19">
         <v>120</v>
@@ -2363,13 +2363,13 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B17" s="19">
         <v>1</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D17" s="20" t="s">
         <v>12</v>
@@ -2378,7 +2378,7 @@
         <v>1</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G17" s="19">
         <v>120</v>
@@ -2390,13 +2390,13 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B18" s="19">
         <v>1</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D18" s="20" t="s">
         <v>12</v>
@@ -2405,7 +2405,7 @@
         <v>1</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G18" s="19">
         <v>120</v>
@@ -2417,13 +2417,13 @@
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B19" s="19">
         <v>1</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D19" s="20" t="s">
         <v>12</v>
@@ -2432,7 +2432,7 @@
         <v>1</v>
       </c>
       <c r="F19" s="19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G19" s="19">
         <v>120</v>
@@ -2444,13 +2444,13 @@
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B20" s="19">
         <v>1</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D20" s="20" t="s">
         <v>12</v>
@@ -2459,7 +2459,7 @@
         <v>1</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G20" s="19">
         <v>120</v>
@@ -2470,27 +2470,13 @@
       <c r="K20" s="19"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B21" s="19">
-        <v>1</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D21" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="19">
-        <v>1</v>
-      </c>
-      <c r="F21" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="G21" s="19">
-        <v>120</v>
-      </c>
+      <c r="A21" s="1"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
       <c r="J21" s="19"/>
@@ -3926,42 +3912,29 @@
       <c r="J131" s="19"/>
       <c r="K131" s="19"/>
     </row>
-    <row r="132" spans="1:11">
-      <c r="A132" s="1"/>
-      <c r="B132" s="19"/>
-      <c r="C132" s="2"/>
-      <c r="D132" s="20"/>
-      <c r="E132" s="19"/>
-      <c r="F132" s="19"/>
-      <c r="G132" s="19"/>
-      <c r="H132" s="19"/>
-      <c r="I132" s="19"/>
-      <c r="J132" s="19"/>
-      <c r="K132" s="19"/>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:C1"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B132" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B131" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H4:I132" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H4:I131" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty." sqref="G4:G132" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty." sqref="G4:G131" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use Program Change, set cell value empty." sqref="J4:J132" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use Program Change, set cell value empty." sqref="J4:J131" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If cell value is empty, MSB will be set 0._x000a__x000a_By my research, Maybe Cubase will not recognize MSB." sqref="K4:K132" xr:uid="{00000000-0002-0000-0000-000004000000}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If cell value is empty, MSB will be set 0._x000a__x000a_By my research, Maybe Cubase will not recognize MSB." sqref="K4:K131" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
@@ -3980,7 +3953,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>D4:D132</xm:sqref>
+          <xm:sqref>D4:D131</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000006000000}">
           <x14:formula1>
@@ -3989,7 +3962,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>E4:E132</xm:sqref>
+          <xm:sqref>E4:E131</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" promptTitle="MIDI Note" prompt="Choose from Drop-down list or imput number directly(0-127)_x000a__x000a_If don’t use MIDI Note, set Cell value empty." xr:uid="{00000000-0002-0000-0000-000007000000}">
           <x14:formula1>
@@ -3998,7 +3971,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>F4:F132</xm:sqref>
+          <xm:sqref>F4:F131</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4029,7 +4002,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" customHeight="1">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="24" t="s">
         <v>237</v>
       </c>
       <c r="B1" s="26" t="s">
@@ -6017,7 +5990,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" customHeight="1">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="24" t="s">
         <v>237</v>
       </c>
       <c r="B1" s="26" t="s">
@@ -7865,7 +7838,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" customHeight="1">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="24" t="s">
         <v>237</v>
       </c>
       <c r="B1" s="26" t="s">
@@ -11358,7 +11331,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" customHeight="1">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="24" t="s">
         <v>237</v>
       </c>
       <c r="B1" s="26" t="s">
@@ -13215,7 +13188,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:K131"/>
+  <dimension ref="A1:K132"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
@@ -13236,7 +13209,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" customHeight="1">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="24" t="s">
         <v>237</v>
       </c>
       <c r="B1" s="26" t="s">
@@ -13304,25 +13277,25 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>164</v>
+        <v>250</v>
       </c>
       <c r="B5" s="19">
         <v>1</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="D5" s="20" t="s">
+      <c r="C5" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D5" s="25" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="19">
         <v>1</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="G5" s="19">
-        <v>120</v>
+        <v>15</v>
       </c>
       <c r="H5" s="19"/>
       <c r="I5" s="19"/>
@@ -13331,13 +13304,13 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B6" s="19">
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D6" s="20" t="s">
         <v>12</v>
@@ -13346,7 +13319,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G6" s="19">
         <v>120</v>
@@ -13358,13 +13331,13 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B7" s="19">
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D7" s="20" t="s">
         <v>12</v>
@@ -13373,7 +13346,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G7" s="19">
         <v>120</v>
@@ -13385,13 +13358,13 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B8" s="19">
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D8" s="20" t="s">
         <v>12</v>
@@ -13400,7 +13373,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G8" s="19">
         <v>120</v>
@@ -13412,13 +13385,13 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B9" s="19">
         <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D9" s="20" t="s">
         <v>12</v>
@@ -13427,7 +13400,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G9" s="19">
         <v>120</v>
@@ -13439,13 +13412,13 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>145</v>
+        <v>168</v>
       </c>
       <c r="B10" s="19">
         <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>145</v>
+        <v>168</v>
       </c>
       <c r="D10" s="20" t="s">
         <v>12</v>
@@ -13454,7 +13427,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G10" s="19">
         <v>120</v>
@@ -13466,13 +13439,13 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B11" s="19">
         <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D11" s="20" t="s">
         <v>12</v>
@@ -13481,7 +13454,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G11" s="19">
         <v>120</v>
@@ -13493,13 +13466,13 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B12" s="19">
         <v>1</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D12" s="20" t="s">
         <v>12</v>
@@ -13508,7 +13481,7 @@
         <v>1</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G12" s="19">
         <v>120</v>
@@ -13520,13 +13493,13 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B13" s="19">
         <v>1</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D13" s="20" t="s">
         <v>12</v>
@@ -13535,7 +13508,7 @@
         <v>1</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G13" s="19">
         <v>120</v>
@@ -13547,13 +13520,13 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B14" s="19">
         <v>1</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D14" s="20" t="s">
         <v>12</v>
@@ -13562,7 +13535,7 @@
         <v>1</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G14" s="19">
         <v>120</v>
@@ -13574,13 +13547,13 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B15" s="19">
         <v>1</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D15" s="20" t="s">
         <v>12</v>
@@ -13589,7 +13562,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G15" s="19">
         <v>120</v>
@@ -13601,13 +13574,13 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B16" s="19">
         <v>1</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D16" s="20" t="s">
         <v>12</v>
@@ -13616,7 +13589,7 @@
         <v>1</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G16" s="19">
         <v>120</v>
@@ -13628,13 +13601,13 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B17" s="19">
         <v>1</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D17" s="20" t="s">
         <v>12</v>
@@ -13643,7 +13616,7 @@
         <v>1</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G17" s="19">
         <v>120</v>
@@ -13655,13 +13628,13 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B18" s="19">
         <v>1</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D18" s="20" t="s">
         <v>12</v>
@@ -13670,7 +13643,7 @@
         <v>1</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G18" s="19">
         <v>120</v>
@@ -13682,13 +13655,13 @@
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B19" s="19">
         <v>1</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D19" s="20" t="s">
         <v>12</v>
@@ -13697,7 +13670,7 @@
         <v>1</v>
       </c>
       <c r="F19" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G19" s="19">
         <v>120</v>
@@ -13709,13 +13682,13 @@
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="B20" s="19">
         <v>1</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="D20" s="20" t="s">
         <v>12</v>
@@ -13724,7 +13697,7 @@
         <v>1</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G20" s="19">
         <v>120</v>
@@ -13736,13 +13709,13 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B21" s="19">
         <v>1</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D21" s="20" t="s">
         <v>12</v>
@@ -13751,7 +13724,7 @@
         <v>1</v>
       </c>
       <c r="F21" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G21" s="19">
         <v>120</v>
@@ -13763,13 +13736,13 @@
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="B22" s="19">
         <v>1</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="D22" s="20" t="s">
         <v>12</v>
@@ -13778,7 +13751,7 @@
         <v>1</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G22" s="19">
         <v>120</v>
@@ -13790,13 +13763,13 @@
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B23" s="19">
         <v>1</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D23" s="20" t="s">
         <v>12</v>
@@ -13805,7 +13778,7 @@
         <v>1</v>
       </c>
       <c r="F23" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G23" s="19">
         <v>120</v>
@@ -13817,13 +13790,13 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B24" s="19">
         <v>1</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D24" s="20" t="s">
         <v>12</v>
@@ -13832,7 +13805,7 @@
         <v>1</v>
       </c>
       <c r="F24" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G24" s="19">
         <v>120</v>
@@ -13843,13 +13816,27 @@
       <c r="K24" s="19"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="1"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
+      <c r="A25" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B25" s="19">
+        <v>1</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="19">
+        <v>1</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="G25" s="19">
+        <v>120</v>
+      </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
       <c r="J25" s="19"/>
@@ -15233,29 +15220,42 @@
       <c r="J131" s="19"/>
       <c r="K131" s="19"/>
     </row>
+    <row r="132" spans="1:11">
+      <c r="A132" s="1"/>
+      <c r="B132" s="19"/>
+      <c r="C132" s="2"/>
+      <c r="D132" s="20"/>
+      <c r="E132" s="19"/>
+      <c r="F132" s="19"/>
+      <c r="G132" s="19"/>
+      <c r="H132" s="19"/>
+      <c r="I132" s="19"/>
+      <c r="J132" s="19"/>
+      <c r="K132" s="19"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:C1"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B131" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B132" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H4:I131" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H4:I132" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty." sqref="G4:G131" xr:uid="{00000000-0002-0000-0200-000002000000}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty." sqref="G4:G132" xr:uid="{00000000-0002-0000-0200-000002000000}">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use Program Change, set cell value empty." sqref="J4:J131" xr:uid="{00000000-0002-0000-0200-000003000000}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use Program Change, set cell value empty." sqref="J4:J132" xr:uid="{00000000-0002-0000-0200-000003000000}">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If cell value is empty, MSB will be set 0._x000a__x000a_By my research, Maybe Cubase will not recognize MSB." sqref="K4:K131" xr:uid="{00000000-0002-0000-0200-000004000000}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If cell value is empty, MSB will be set 0._x000a__x000a_By my research, Maybe Cubase will not recognize MSB." sqref="K4:K132" xr:uid="{00000000-0002-0000-0200-000004000000}">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
@@ -15273,7 +15273,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>D4:D131</xm:sqref>
+          <xm:sqref>D4:D132</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000006000000}">
           <x14:formula1>
@@ -15282,7 +15282,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>E4:E131</xm:sqref>
+          <xm:sqref>E4:E132</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" promptTitle="MIDI Note" prompt="Choose from Drop-down list or imput number directly(0-127)_x000a__x000a_If don’t use MIDI Note, set Cell value empty." xr:uid="{00000000-0002-0000-0200-000007000000}">
           <x14:formula1>
@@ -15291,7 +15291,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>F4:F131</xm:sqref>
+          <xm:sqref>F4:F132</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -15322,7 +15322,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" customHeight="1">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="24" t="s">
         <v>237</v>
       </c>
       <c r="B1" s="26" t="s">
@@ -17170,7 +17170,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" customHeight="1">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="24" t="s">
         <v>237</v>
       </c>
       <c r="B1" s="26" t="s">
@@ -19200,7 +19200,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" customHeight="1">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="24" t="s">
         <v>237</v>
       </c>
       <c r="B1" s="26" t="s">
@@ -21342,7 +21342,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" customHeight="1">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="24" t="s">
         <v>237</v>
       </c>
       <c r="B1" s="26" t="s">
@@ -23204,7 +23204,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" customHeight="1">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="24" t="s">
         <v>237</v>
       </c>
       <c r="B1" s="26" t="s">
@@ -25038,7 +25038,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" customHeight="1">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="24" t="s">
         <v>237</v>
       </c>
       <c r="B1" s="26" t="s">
